--- a/methods.xlsx
+++ b/methods.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+  <si>
+    <t xml:space="preserve">METHOD_NAMES</t>
+  </si>
   <si>
     <t xml:space="preserve">Java</t>
   </si>
@@ -371,7 +374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -395,8 +398,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -425,12 +430,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="alias"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -500,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,10 +573,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:K975"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -684,56 +679,59 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -747,17 +745,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -768,17 +766,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -789,15 +787,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -808,7 +806,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="14"/>
@@ -823,19 +821,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -846,19 +844,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -869,7 +867,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -884,7 +882,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -899,7 +897,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -914,16 +912,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
@@ -935,7 +933,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -950,7 +948,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -965,16 +963,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="10"/>
@@ -986,7 +984,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1001,14 +999,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="10"/>
@@ -1020,16 +1018,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="10"/>
@@ -1041,16 +1039,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="10"/>
@@ -1062,16 +1060,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="10"/>
@@ -1083,16 +1081,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="10"/>
@@ -1104,17 +1102,17 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1125,7 +1123,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1140,19 +1138,19 @@
     </row>
     <row r="25" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1163,15 +1161,15 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1182,10 +1180,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="8"/>
@@ -1199,19 +1197,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1222,16 +1220,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1242,17 +1240,17 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1263,19 +1261,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1286,19 +1284,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1309,19 +1307,19 @@
     </row>
     <row r="33" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="19" t="s">
         <v>81</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -1332,17 +1330,17 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -1353,17 +1351,17 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -1374,17 +1372,17 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1395,19 +1393,19 @@
     </row>
     <row r="37" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -1418,19 +1416,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -1441,17 +1439,17 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -1462,17 +1460,17 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -1483,19 +1481,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -1506,7 +1504,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -1521,7 +1519,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -1536,7 +1534,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -1551,15 +1549,15 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>

--- a/methods.xlsx
+++ b/methods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t xml:space="preserve">METHOD_NAMES</t>
   </si>
@@ -82,24 +82,21 @@
     <t xml:space="preserve">compareToIgnoreCase</t>
   </si>
   <si>
-    <t xml:space="preserve">strcasecmp</t>
-  </si>
-  <si>
     <t xml:space="preserve">concatenate</t>
   </si>
   <si>
     <t xml:space="preserve">concat</t>
   </si>
   <si>
+    <t xml:space="preserve">append</t>
+  </si>
+  <si>
     <t xml:space="preserve">contains</t>
   </si>
   <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
-    <t xml:space="preserve">countMatches</t>
-  </si>
-  <si>
     <t xml:space="preserve">ends-with</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t xml:space="preserve">endswith</t>
   </si>
   <si>
-    <t xml:space="preserve">ends_with</t>
-  </si>
-  <si>
     <t xml:space="preserve">end_with?</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t xml:space="preserve">format</t>
   </si>
   <si>
-    <t xml:space="preserve">sprintf</t>
-  </si>
-  <si>
     <t xml:space="preserve">hash</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t xml:space="preserve">is-alphabetic</t>
   </si>
   <si>
-    <t xml:space="preserve">isLetter</t>
-  </si>
-  <si>
     <t xml:space="preserve">isalpha</t>
   </si>
   <si>
@@ -151,45 +139,27 @@
     <t xml:space="preserve">is-hexadecimal</t>
   </si>
   <si>
-    <t xml:space="preserve">isHexDigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isxdigit</t>
-  </si>
-  <si>
     <t xml:space="preserve">is-int</t>
   </si>
   <si>
-    <t xml:space="preserve">isNumeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">isdigit</t>
   </si>
   <si>
     <t xml:space="preserve">is-lowercase</t>
   </si>
   <si>
-    <t xml:space="preserve">isLowerCase</t>
-  </si>
-  <si>
     <t xml:space="preserve">islower</t>
   </si>
   <si>
     <t xml:space="preserve">is-uppercase</t>
   </si>
   <si>
-    <t xml:space="preserve">isUpperCase</t>
-  </si>
-  <si>
     <t xml:space="preserve">isupper</t>
   </si>
   <si>
     <t xml:space="preserve">is-whitespace</t>
   </si>
   <si>
-    <t xml:space="preserve">isBlank</t>
-  </si>
-  <si>
     <t xml:space="preserve">isspace</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t xml:space="preserve">re.match</t>
   </si>
   <si>
-    <t xml:space="preserve">regex_match</t>
-  </si>
-  <si>
     <t xml:space="preserve">match?</t>
   </si>
   <si>
@@ -256,15 +223,12 @@
     <t xml:space="preserve">strip</t>
   </si>
   <si>
+    <t xml:space="preserve">trim</t>
+  </si>
+  <si>
     <t xml:space="preserve">substring</t>
   </si>
   <si>
-    <t xml:space="preserve">subSequence, substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slices</t>
-  </si>
-  <si>
     <t xml:space="preserve">substr</t>
   </si>
   <si>
@@ -274,18 +238,12 @@
     <t xml:space="preserve">swap-case</t>
   </si>
   <si>
-    <t xml:space="preserve">swapCase</t>
-  </si>
-  <si>
     <t xml:space="preserve">swapcase</t>
   </si>
   <si>
     <t xml:space="preserve">to-float</t>
   </si>
   <si>
-    <t xml:space="preserve">valueOf</t>
-  </si>
-  <si>
     <t xml:space="preserve">stof</t>
   </si>
   <si>
@@ -334,24 +292,15 @@
     <t xml:space="preserve">trim-left</t>
   </si>
   <si>
-    <t xml:space="preserve">stripLeading</t>
-  </si>
-  <si>
     <t xml:space="preserve">lstrip</t>
   </si>
   <si>
     <t xml:space="preserve">trim-right</t>
   </si>
   <si>
-    <t xml:space="preserve">stripTrailing</t>
-  </si>
-  <si>
     <t xml:space="preserve">rstrip</t>
   </si>
   <si>
-    <t xml:space="preserve">reverse</t>
-  </si>
-  <si>
     <t xml:space="preserve">remove</t>
   </si>
   <si>
@@ -361,10 +310,49 @@
     <t xml:space="preserve">as-bytes</t>
   </si>
   <si>
+    <t xml:space="preserve">getBytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop_back</t>
+  </si>
+  <si>
     <t xml:space="preserve">chop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_back</t>
+    <t xml:space="preserve">as-chars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getChars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as-canonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is-ascii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isascii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copyValueOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains-any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve-capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrink-to-fit</t>
   </si>
 </sst>
 </file>
@@ -374,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -398,15 +386,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
+      <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
@@ -414,25 +394,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="0"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="alias"/>
-      <family val="0"/>
+      <color rgb="FF2A6099"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,18 +437,17 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -499,93 +478,97 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -665,10 +648,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K975"/>
+  <dimension ref="A1:K974"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,7 +677,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -714,980 +697,1350 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
+      <c r="A12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
+      <c r="A14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="E33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="D37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="E37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
+      <c r="A46" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
+      <c r="A47" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
+      <c r="A48" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
+      <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
+      <c r="A51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="22"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="22"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="16"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="16"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="16"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16"/>
@@ -4352,9 +4705,6 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="16"/>
-    </row>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/methods.xlsx
+++ b/methods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t xml:space="preserve">METHOD_NAMES</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">capitalize</t>
   </si>
   <si>
+    <t xml:space="preserve">ToTitle</t>
+  </si>
+  <si>
     <t xml:space="preserve">char-at</t>
   </si>
   <si>
@@ -73,15 +76,27 @@
     <t xml:space="preserve">strcmp</t>
   </si>
   <si>
+    <t xml:space="preserve">casecmp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localeCompare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare-ignore-case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compareToIgnoreCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strcasecmp</t>
+  </si>
+  <si>
     <t xml:space="preserve">casecmp</t>
   </si>
   <si>
-    <t xml:space="preserve">compare-ignore-case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compareToIgnoreCase</t>
-  </si>
-  <si>
     <t xml:space="preserve">concatenate</t>
   </si>
   <si>
@@ -91,12 +106,18 @@
     <t xml:space="preserve">append</t>
   </si>
   <si>
+    <t xml:space="preserve">Concat</t>
+  </si>
+  <si>
     <t xml:space="preserve">contains</t>
   </si>
   <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
     <t xml:space="preserve">ends-with</t>
   </si>
   <si>
@@ -109,6 +130,15 @@
     <t xml:space="preserve">end_with?</t>
   </si>
   <si>
+    <t xml:space="preserve">HasSuffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndsWith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasSuffix</t>
+  </si>
+  <si>
     <t xml:space="preserve">equals</t>
   </si>
   <si>
@@ -121,6 +151,9 @@
     <t xml:space="preserve">format</t>
   </si>
   <si>
+    <t xml:space="preserve">Format</t>
+  </si>
+  <si>
     <t xml:space="preserve">hash</t>
   </si>
   <si>
@@ -163,9 +196,15 @@
     <t xml:space="preserve">isspace</t>
   </si>
   <si>
+    <t xml:space="preserve">IsNullOrWhiteSpace</t>
+  </si>
+  <si>
     <t xml:space="preserve">join</t>
   </si>
   <si>
+    <t xml:space="preserve">Join</t>
+  </si>
+  <si>
     <t xml:space="preserve">length</t>
   </si>
   <si>
@@ -181,12 +220,21 @@
     <t xml:space="preserve">match?</t>
   </si>
   <si>
+    <t xml:space="preserve">match</t>
+  </si>
+  <si>
     <t xml:space="preserve">partition</t>
   </si>
   <si>
+    <t xml:space="preserve">Cut</t>
+  </si>
+  <si>
     <t xml:space="preserve">repeat</t>
   </si>
   <si>
+    <t xml:space="preserve">Repeat</t>
+  </si>
+  <si>
     <t xml:space="preserve">replace-all</t>
   </si>
   <si>
@@ -196,6 +244,15 @@
     <t xml:space="preserve">replace</t>
   </si>
   <si>
+    <t xml:space="preserve">ReplaceAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaceSubrange</t>
+  </si>
+  <si>
     <t xml:space="preserve">replace-first</t>
   </si>
   <si>
@@ -205,6 +262,9 @@
     <t xml:space="preserve">split</t>
   </si>
   <si>
+    <t xml:space="preserve">Split</t>
+  </si>
+  <si>
     <t xml:space="preserve">starts-with</t>
   </si>
   <si>
@@ -214,18 +274,27 @@
     <t xml:space="preserve">startswith</t>
   </si>
   <si>
-    <t xml:space="preserve">starts_with</t>
-  </si>
-  <si>
     <t xml:space="preserve">start_with?</t>
   </si>
   <si>
+    <t xml:space="preserve">HasPrefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartsWith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPrefix</t>
+  </si>
+  <si>
     <t xml:space="preserve">strip</t>
   </si>
   <si>
     <t xml:space="preserve">trim</t>
   </si>
   <si>
+    <t xml:space="preserve">Trim</t>
+  </si>
+  <si>
     <t xml:space="preserve">substring</t>
   </si>
   <si>
@@ -235,6 +304,9 @@
     <t xml:space="preserve">slice</t>
   </si>
   <si>
+    <t xml:space="preserve">Substring</t>
+  </si>
+  <si>
     <t xml:space="preserve">swap-case</t>
   </si>
   <si>
@@ -244,18 +316,12 @@
     <t xml:space="preserve">to-float</t>
   </si>
   <si>
-    <t xml:space="preserve">stof</t>
-  </si>
-  <si>
     <t xml:space="preserve">to_f</t>
   </si>
   <si>
     <t xml:space="preserve">to-int</t>
   </si>
   <si>
-    <t xml:space="preserve">stoi</t>
-  </si>
-  <si>
     <t xml:space="preserve">to_i</t>
   </si>
   <si>
@@ -268,12 +334,15 @@
     <t xml:space="preserve">lower</t>
   </si>
   <si>
-    <t xml:space="preserve">tolower</t>
-  </si>
-  <si>
     <t xml:space="preserve">downcase</t>
   </si>
   <si>
+    <t xml:space="preserve">ToLower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowercased</t>
+  </si>
+  <si>
     <t xml:space="preserve">to-uppercase</t>
   </si>
   <si>
@@ -283,24 +352,45 @@
     <t xml:space="preserve">upper</t>
   </si>
   <si>
-    <t xml:space="preserve">toupper</t>
-  </si>
-  <si>
     <t xml:space="preserve">upcase</t>
   </si>
   <si>
+    <t xml:space="preserve">ToUpper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uppercased</t>
+  </si>
+  <si>
     <t xml:space="preserve">trim-left</t>
   </si>
   <si>
     <t xml:space="preserve">lstrip</t>
   </si>
   <si>
+    <t xml:space="preserve">trimStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimLeft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimEnd</t>
+  </si>
+  <si>
     <t xml:space="preserve">trim-right</t>
   </si>
   <si>
     <t xml:space="preserve">rstrip</t>
   </si>
   <si>
+    <t xml:space="preserve">trimEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimStart</t>
+  </si>
+  <si>
     <t xml:space="preserve">remove</t>
   </si>
   <si>
@@ -313,7 +403,7 @@
     <t xml:space="preserve">getBytes</t>
   </si>
   <si>
-    <t xml:space="preserve">Pop-back</t>
+    <t xml:space="preserve">pop-back</t>
   </si>
   <si>
     <t xml:space="preserve">pop_back</t>
@@ -322,18 +412,30 @@
     <t xml:space="preserve">chop</t>
   </si>
   <si>
+    <t xml:space="preserve">popLast</t>
+  </si>
+  <si>
     <t xml:space="preserve">as-chars</t>
   </si>
   <si>
     <t xml:space="preserve">getChars</t>
   </si>
   <si>
+    <t xml:space="preserve">ToCharArray</t>
+  </si>
+  <si>
     <t xml:space="preserve">as-canonical</t>
   </si>
   <si>
     <t xml:space="preserve">intern</t>
   </si>
   <si>
+    <t xml:space="preserve">c_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intern</t>
+  </si>
+  <si>
     <t xml:space="preserve">is-ascii</t>
   </si>
   <si>
@@ -343,16 +445,25 @@
     <t xml:space="preserve">copy</t>
   </si>
   <si>
-    <t xml:space="preserve">copyValueOf</t>
-  </si>
-  <si>
     <t xml:space="preserve">contains-any</t>
   </si>
   <si>
+    <t xml:space="preserve">ContainsAny</t>
+  </si>
+  <si>
     <t xml:space="preserve">reserve-capacity</t>
   </si>
   <si>
+    <t xml:space="preserve">reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserveCapacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">shrink-to-fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrink_to_fit</t>
   </si>
 </sst>
 </file>
@@ -478,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,8 +614,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -515,16 +634,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -532,10 +655,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,10 +672,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -650,8 +765,8 @@
   </sheetPr>
   <dimension ref="A1:K974"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,4002 +824,4110 @@
         <v>11</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="E9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="H13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>38</v>
+      <c r="A18" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="15" t="s">
-        <v>47</v>
+      <c r="E23" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="6" t="s">
-        <v>53</v>
+      <c r="E26" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="E28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="E30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="6" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>75</v>
+      <c r="D35" s="4"/>
+      <c r="E35" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>78</v>
+      <c r="D36" s="4"/>
+      <c r="E36" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>93</v>
+      <c r="A41" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
-        <v>94</v>
+      <c r="A42" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>95</v>
+      <c r="A43" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>97</v>
+      <c r="A44" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>99</v>
+      <c r="D44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="I44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="H45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="H46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="I50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16"/>
+      <c r="A87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16"/>
+      <c r="A88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16"/>
+      <c r="A89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16"/>
+      <c r="A90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16"/>
+      <c r="A91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16"/>
+      <c r="A92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16"/>
+      <c r="A93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="16"/>
+      <c r="A94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16"/>
+      <c r="A95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16"/>
+      <c r="A96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16"/>
+      <c r="A97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16"/>
+      <c r="A98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16"/>
+      <c r="A99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16"/>
+      <c r="A100" s="18"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16"/>
+      <c r="A101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16"/>
+      <c r="A102" s="18"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16"/>
+      <c r="A103" s="18"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16"/>
+      <c r="A104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16"/>
+      <c r="A105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="16"/>
+      <c r="A106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16"/>
+      <c r="A107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="16"/>
+      <c r="A108" s="18"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16"/>
+      <c r="A109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="16"/>
+      <c r="A110" s="18"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16"/>
+      <c r="A111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16"/>
+      <c r="A112" s="18"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16"/>
+      <c r="A113" s="18"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16"/>
+      <c r="A114" s="18"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16"/>
+      <c r="A115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16"/>
+      <c r="A116" s="18"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16"/>
+      <c r="A117" s="18"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16"/>
+      <c r="A118" s="18"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16"/>
+      <c r="A119" s="18"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16"/>
+      <c r="A120" s="18"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16"/>
+      <c r="A121" s="18"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="16"/>
+      <c r="A122" s="18"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16"/>
+      <c r="A123" s="18"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16"/>
+      <c r="A124" s="18"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16"/>
+      <c r="A125" s="18"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16"/>
+      <c r="A126" s="18"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16"/>
+      <c r="A127" s="18"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16"/>
+      <c r="A128" s="18"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16"/>
+      <c r="A129" s="18"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16"/>
+      <c r="A130" s="18"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16"/>
+      <c r="A131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16"/>
+      <c r="A132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16"/>
+      <c r="A133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16"/>
+      <c r="A134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16"/>
+      <c r="A135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16"/>
+      <c r="A136" s="18"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16"/>
+      <c r="A137" s="18"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="16"/>
+      <c r="A138" s="18"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16"/>
+      <c r="A139" s="18"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16"/>
+      <c r="A140" s="18"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16"/>
+      <c r="A141" s="18"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="16"/>
+      <c r="A142" s="18"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="16"/>
+      <c r="A143" s="18"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="16"/>
+      <c r="A144" s="18"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16"/>
+      <c r="A145" s="18"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16"/>
+      <c r="A146" s="18"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16"/>
+      <c r="A147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="16"/>
+      <c r="A148" s="18"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16"/>
+      <c r="A149" s="18"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16"/>
+      <c r="A150" s="18"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16"/>
+      <c r="A151" s="18"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="16"/>
+      <c r="A152" s="18"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16"/>
+      <c r="A153" s="18"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="16"/>
+      <c r="A154" s="18"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16"/>
+      <c r="A155" s="18"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16"/>
+      <c r="A156" s="18"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="16"/>
+      <c r="A157" s="18"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="16"/>
+      <c r="A158" s="18"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="16"/>
+      <c r="A159" s="18"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16"/>
+      <c r="A160" s="18"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16"/>
+      <c r="A161" s="18"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16"/>
+      <c r="A162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="16"/>
+      <c r="A163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="16"/>
+      <c r="A164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="16"/>
+      <c r="A165" s="18"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16"/>
+      <c r="A166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="16"/>
+      <c r="A167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="16"/>
+      <c r="A168" s="18"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="16"/>
+      <c r="A169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="16"/>
+      <c r="A170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="16"/>
+      <c r="A171" s="18"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="16"/>
+      <c r="A172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="16"/>
+      <c r="A173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16"/>
+      <c r="A174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="16"/>
+      <c r="A175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="16"/>
+      <c r="A176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="16"/>
+      <c r="A177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="16"/>
+      <c r="A178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="16"/>
+      <c r="A179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="16"/>
+      <c r="A180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="16"/>
+      <c r="A181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="16"/>
+      <c r="A182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16"/>
+      <c r="A183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="16"/>
+      <c r="A184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="16"/>
+      <c r="A185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="16"/>
+      <c r="A186" s="18"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="16"/>
+      <c r="A187" s="18"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="16"/>
+      <c r="A188" s="18"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="16"/>
+      <c r="A189" s="18"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="16"/>
+      <c r="A190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="16"/>
+      <c r="A191" s="18"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="16"/>
+      <c r="A192" s="18"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="16"/>
+      <c r="A193" s="18"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="16"/>
+      <c r="A194" s="18"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="16"/>
+      <c r="A195" s="18"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="16"/>
+      <c r="A196" s="18"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="16"/>
+      <c r="A197" s="18"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="16"/>
+      <c r="A198" s="18"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="16"/>
+      <c r="A199" s="18"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="16"/>
+      <c r="A200" s="18"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="16"/>
+      <c r="A201" s="18"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="16"/>
+      <c r="A202" s="18"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="16"/>
+      <c r="A203" s="18"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="16"/>
+      <c r="A204" s="18"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="16"/>
+      <c r="A205" s="18"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="16"/>
+      <c r="A206" s="18"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="16"/>
+      <c r="A207" s="18"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="16"/>
+      <c r="A208" s="18"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="16"/>
+      <c r="A209" s="18"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="16"/>
+      <c r="A210" s="18"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="16"/>
+      <c r="A211" s="18"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="16"/>
+      <c r="A212" s="18"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="16"/>
+      <c r="A213" s="18"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="16"/>
+      <c r="A214" s="18"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="16"/>
+      <c r="A215" s="18"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="16"/>
+      <c r="A216" s="18"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="16"/>
+      <c r="A217" s="18"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="16"/>
+      <c r="A218" s="18"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="16"/>
+      <c r="A219" s="18"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="16"/>
+      <c r="A220" s="18"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="16"/>
+      <c r="A221" s="18"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="16"/>
+      <c r="A222" s="18"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="16"/>
+      <c r="A223" s="18"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="16"/>
+      <c r="A224" s="18"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="16"/>
+      <c r="A225" s="18"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="16"/>
+      <c r="A226" s="18"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="16"/>
+      <c r="A227" s="18"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="16"/>
+      <c r="A228" s="18"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="16"/>
+      <c r="A229" s="18"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="16"/>
+      <c r="A230" s="18"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="16"/>
+      <c r="A231" s="18"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="16"/>
+      <c r="A232" s="18"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="16"/>
+      <c r="A233" s="18"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="16"/>
+      <c r="A234" s="18"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="16"/>
+      <c r="A235" s="18"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="16"/>
+      <c r="A236" s="18"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16"/>
+      <c r="A237" s="18"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="16"/>
+      <c r="A238" s="18"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="16"/>
+      <c r="A239" s="18"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="16"/>
+      <c r="A240" s="18"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="16"/>
+      <c r="A241" s="18"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="16"/>
+      <c r="A242" s="18"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="16"/>
+      <c r="A243" s="18"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="16"/>
+      <c r="A244" s="18"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="16"/>
+      <c r="A245" s="18"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="16"/>
+      <c r="A246" s="18"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="16"/>
+      <c r="A247" s="18"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="16"/>
+      <c r="A248" s="18"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="16"/>
+      <c r="A249" s="18"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="16"/>
+      <c r="A250" s="18"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="16"/>
+      <c r="A251" s="18"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="16"/>
+      <c r="A252" s="18"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="16"/>
+      <c r="A253" s="18"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="16"/>
+      <c r="A254" s="18"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="16"/>
+      <c r="A255" s="18"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="16"/>
+      <c r="A256" s="18"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="16"/>
+      <c r="A257" s="18"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="16"/>
+      <c r="A258" s="18"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="16"/>
+      <c r="A259" s="18"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="16"/>
+      <c r="A260" s="18"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="16"/>
+      <c r="A261" s="18"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="16"/>
+      <c r="A262" s="18"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="16"/>
+      <c r="A263" s="18"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="16"/>
+      <c r="A264" s="18"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="16"/>
+      <c r="A265" s="18"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="16"/>
+      <c r="A266" s="18"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="16"/>
+      <c r="A267" s="18"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="16"/>
+      <c r="A268" s="18"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="16"/>
+      <c r="A269" s="18"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="16"/>
+      <c r="A270" s="18"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="16"/>
+      <c r="A271" s="18"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="16"/>
+      <c r="A272" s="18"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="16"/>
+      <c r="A273" s="18"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="16"/>
+      <c r="A274" s="18"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="16"/>
+      <c r="A275" s="18"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="16"/>
+      <c r="A276" s="18"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="16"/>
+      <c r="A277" s="18"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="16"/>
+      <c r="A278" s="18"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="16"/>
+      <c r="A279" s="18"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="16"/>
+      <c r="A280" s="18"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="16"/>
+      <c r="A281" s="18"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="16"/>
+      <c r="A282" s="18"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="16"/>
+      <c r="A283" s="18"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="16"/>
+      <c r="A284" s="18"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="16"/>
+      <c r="A285" s="18"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="16"/>
+      <c r="A286" s="18"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="16"/>
+      <c r="A287" s="18"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="16"/>
+      <c r="A288" s="18"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="16"/>
+      <c r="A289" s="18"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="16"/>
+      <c r="A290" s="18"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="16"/>
+      <c r="A291" s="18"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="16"/>
+      <c r="A292" s="18"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="16"/>
+      <c r="A293" s="18"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="16"/>
+      <c r="A294" s="18"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="16"/>
+      <c r="A295" s="18"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="16"/>
+      <c r="A296" s="18"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="16"/>
+      <c r="A297" s="18"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="16"/>
+      <c r="A298" s="18"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="16"/>
+      <c r="A299" s="18"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="16"/>
+      <c r="A300" s="18"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="16"/>
+      <c r="A301" s="18"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="16"/>
+      <c r="A302" s="18"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="16"/>
+      <c r="A303" s="18"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="16"/>
+      <c r="A304" s="18"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="16"/>
+      <c r="A305" s="18"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="16"/>
+      <c r="A306" s="18"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="16"/>
+      <c r="A307" s="18"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="16"/>
+      <c r="A308" s="18"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="16"/>
+      <c r="A309" s="18"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="16"/>
+      <c r="A310" s="18"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="16"/>
+      <c r="A311" s="18"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="16"/>
+      <c r="A312" s="18"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="16"/>
+      <c r="A313" s="18"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="16"/>
+      <c r="A314" s="18"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="16"/>
+      <c r="A315" s="18"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="16"/>
+      <c r="A316" s="18"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="16"/>
+      <c r="A317" s="18"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="16"/>
+      <c r="A318" s="18"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="16"/>
+      <c r="A319" s="18"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="16"/>
+      <c r="A320" s="18"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="16"/>
+      <c r="A321" s="18"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="16"/>
+      <c r="A322" s="18"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="16"/>
+      <c r="A323" s="18"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="16"/>
+      <c r="A324" s="18"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="16"/>
+      <c r="A325" s="18"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="16"/>
+      <c r="A326" s="18"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="16"/>
+      <c r="A327" s="18"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="16"/>
+      <c r="A328" s="18"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="16"/>
+      <c r="A329" s="18"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="16"/>
+      <c r="A330" s="18"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="16"/>
+      <c r="A331" s="18"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="16"/>
+      <c r="A332" s="18"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="16"/>
+      <c r="A333" s="18"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="16"/>
+      <c r="A334" s="18"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="16"/>
+      <c r="A335" s="18"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="16"/>
+      <c r="A336" s="18"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="16"/>
+      <c r="A337" s="18"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="16"/>
+      <c r="A338" s="18"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="16"/>
+      <c r="A339" s="18"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="16"/>
+      <c r="A340" s="18"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="16"/>
+      <c r="A341" s="18"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="16"/>
+      <c r="A342" s="18"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="16"/>
+      <c r="A343" s="18"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="16"/>
+      <c r="A344" s="18"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="16"/>
+      <c r="A345" s="18"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="16"/>
+      <c r="A346" s="18"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="16"/>
+      <c r="A347" s="18"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="16"/>
+      <c r="A348" s="18"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="16"/>
+      <c r="A349" s="18"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="16"/>
+      <c r="A350" s="18"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="16"/>
+      <c r="A351" s="18"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="16"/>
+      <c r="A352" s="18"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="16"/>
+      <c r="A353" s="18"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="16"/>
+      <c r="A354" s="18"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="16"/>
+      <c r="A355" s="18"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="16"/>
+      <c r="A356" s="18"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="16"/>
+      <c r="A357" s="18"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="16"/>
+      <c r="A358" s="18"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="16"/>
+      <c r="A359" s="18"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="16"/>
+      <c r="A360" s="18"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="16"/>
+      <c r="A361" s="18"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="16"/>
+      <c r="A362" s="18"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="16"/>
+      <c r="A363" s="18"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="16"/>
+      <c r="A364" s="18"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="16"/>
+      <c r="A365" s="18"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="16"/>
+      <c r="A366" s="18"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="16"/>
+      <c r="A367" s="18"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="16"/>
+      <c r="A368" s="18"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="16"/>
+      <c r="A369" s="18"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="16"/>
+      <c r="A370" s="18"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="16"/>
+      <c r="A371" s="18"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="16"/>
+      <c r="A372" s="18"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="16"/>
+      <c r="A373" s="18"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="16"/>
+      <c r="A374" s="18"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="16"/>
+      <c r="A375" s="18"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="16"/>
+      <c r="A376" s="18"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="16"/>
+      <c r="A377" s="18"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="16"/>
+      <c r="A378" s="18"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="16"/>
+      <c r="A379" s="18"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="16"/>
+      <c r="A380" s="18"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="16"/>
+      <c r="A381" s="18"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="16"/>
+      <c r="A382" s="18"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="16"/>
+      <c r="A383" s="18"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="16"/>
+      <c r="A384" s="18"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="16"/>
+      <c r="A385" s="18"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="16"/>
+      <c r="A386" s="18"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="16"/>
+      <c r="A387" s="18"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="16"/>
+      <c r="A388" s="18"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="16"/>
+      <c r="A389" s="18"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="16"/>
+      <c r="A390" s="18"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="16"/>
+      <c r="A391" s="18"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="16"/>
+      <c r="A392" s="18"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="16"/>
+      <c r="A393" s="18"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="16"/>
+      <c r="A394" s="18"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="16"/>
+      <c r="A395" s="18"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="16"/>
+      <c r="A396" s="18"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="16"/>
+      <c r="A397" s="18"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="16"/>
+      <c r="A398" s="18"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="16"/>
+      <c r="A399" s="18"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="16"/>
+      <c r="A400" s="18"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="16"/>
+      <c r="A401" s="18"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="16"/>
+      <c r="A402" s="18"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="16"/>
+      <c r="A403" s="18"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="16"/>
+      <c r="A404" s="18"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="16"/>
+      <c r="A405" s="18"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="16"/>
+      <c r="A406" s="18"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="16"/>
+      <c r="A407" s="18"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="16"/>
+      <c r="A408" s="18"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="16"/>
+      <c r="A409" s="18"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="16"/>
+      <c r="A410" s="18"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="16"/>
+      <c r="A411" s="18"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="16"/>
+      <c r="A412" s="18"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="16"/>
+      <c r="A413" s="18"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="16"/>
+      <c r="A414" s="18"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="16"/>
+      <c r="A415" s="18"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="16"/>
+      <c r="A416" s="18"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="16"/>
+      <c r="A417" s="18"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="16"/>
+      <c r="A418" s="18"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="16"/>
+      <c r="A419" s="18"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="16"/>
+      <c r="A420" s="18"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="16"/>
+      <c r="A421" s="18"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="16"/>
+      <c r="A422" s="18"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="16"/>
+      <c r="A423" s="18"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="16"/>
+      <c r="A424" s="18"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="16"/>
+      <c r="A425" s="18"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="16"/>
+      <c r="A426" s="18"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="16"/>
+      <c r="A427" s="18"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="16"/>
+      <c r="A428" s="18"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="16"/>
+      <c r="A429" s="18"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="16"/>
+      <c r="A430" s="18"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="16"/>
+      <c r="A431" s="18"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="16"/>
+      <c r="A432" s="18"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="16"/>
+      <c r="A433" s="18"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="16"/>
+      <c r="A434" s="18"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="16"/>
+      <c r="A435" s="18"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="16"/>
+      <c r="A436" s="18"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="16"/>
+      <c r="A437" s="18"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="16"/>
+      <c r="A438" s="18"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="16"/>
+      <c r="A439" s="18"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="16"/>
+      <c r="A440" s="18"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="16"/>
+      <c r="A441" s="18"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="16"/>
+      <c r="A442" s="18"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="16"/>
+      <c r="A443" s="18"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="16"/>
+      <c r="A444" s="18"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="16"/>
+      <c r="A445" s="18"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="16"/>
+      <c r="A446" s="18"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="16"/>
+      <c r="A447" s="18"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="16"/>
+      <c r="A448" s="18"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="16"/>
+      <c r="A449" s="18"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="16"/>
+      <c r="A450" s="18"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="16"/>
+      <c r="A451" s="18"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="16"/>
+      <c r="A452" s="18"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="16"/>
+      <c r="A453" s="18"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="16"/>
+      <c r="A454" s="18"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="16"/>
+      <c r="A455" s="18"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="16"/>
+      <c r="A456" s="18"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="16"/>
+      <c r="A457" s="18"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="16"/>
+      <c r="A458" s="18"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="16"/>
+      <c r="A459" s="18"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="16"/>
+      <c r="A460" s="18"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="16"/>
+      <c r="A461" s="18"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="16"/>
+      <c r="A462" s="18"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="16"/>
+      <c r="A463" s="18"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="16"/>
+      <c r="A464" s="18"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="16"/>
+      <c r="A465" s="18"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="16"/>
+      <c r="A466" s="18"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="16"/>
+      <c r="A467" s="18"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="16"/>
+      <c r="A468" s="18"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="16"/>
+      <c r="A469" s="18"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="16"/>
+      <c r="A470" s="18"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="16"/>
+      <c r="A471" s="18"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="16"/>
+      <c r="A472" s="18"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="16"/>
+      <c r="A473" s="18"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="16"/>
+      <c r="A474" s="18"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="16"/>
+      <c r="A475" s="18"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="16"/>
+      <c r="A476" s="18"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="16"/>
+      <c r="A477" s="18"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="16"/>
+      <c r="A478" s="18"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="16"/>
+      <c r="A479" s="18"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="16"/>
+      <c r="A480" s="18"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="16"/>
+      <c r="A481" s="18"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="16"/>
+      <c r="A482" s="18"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="16"/>
+      <c r="A483" s="18"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="16"/>
+      <c r="A484" s="18"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="16"/>
+      <c r="A485" s="18"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="16"/>
+      <c r="A486" s="18"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="16"/>
+      <c r="A487" s="18"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="16"/>
+      <c r="A488" s="18"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="16"/>
+      <c r="A489" s="18"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="16"/>
+      <c r="A490" s="18"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="16"/>
+      <c r="A491" s="18"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="16"/>
+      <c r="A492" s="18"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="16"/>
+      <c r="A493" s="18"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="16"/>
+      <c r="A494" s="18"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="16"/>
+      <c r="A495" s="18"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="16"/>
+      <c r="A496" s="18"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="16"/>
+      <c r="A497" s="18"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="16"/>
+      <c r="A498" s="18"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="16"/>
+      <c r="A499" s="18"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="16"/>
+      <c r="A500" s="18"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="16"/>
+      <c r="A501" s="18"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="16"/>
+      <c r="A502" s="18"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="16"/>
+      <c r="A503" s="18"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="16"/>
+      <c r="A504" s="18"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="16"/>
+      <c r="A505" s="18"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="16"/>
+      <c r="A506" s="18"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="16"/>
+      <c r="A507" s="18"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="16"/>
+      <c r="A508" s="18"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="16"/>
+      <c r="A509" s="18"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="16"/>
+      <c r="A510" s="18"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="16"/>
+      <c r="A511" s="18"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="16"/>
+      <c r="A512" s="18"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="16"/>
+      <c r="A513" s="18"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="16"/>
+      <c r="A514" s="18"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="16"/>
+      <c r="A515" s="18"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="16"/>
+      <c r="A516" s="18"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="16"/>
+      <c r="A517" s="18"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="16"/>
+      <c r="A518" s="18"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="16"/>
+      <c r="A519" s="18"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="16"/>
+      <c r="A520" s="18"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="16"/>
+      <c r="A521" s="18"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="16"/>
+      <c r="A522" s="18"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="16"/>
+      <c r="A523" s="18"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="16"/>
+      <c r="A524" s="18"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="16"/>
+      <c r="A525" s="18"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="16"/>
+      <c r="A526" s="18"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="16"/>
+      <c r="A527" s="18"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="16"/>
+      <c r="A528" s="18"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="16"/>
+      <c r="A529" s="18"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="16"/>
+      <c r="A530" s="18"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="16"/>
+      <c r="A531" s="18"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="16"/>
+      <c r="A532" s="18"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="16"/>
+      <c r="A533" s="18"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="16"/>
+      <c r="A534" s="18"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="16"/>
+      <c r="A535" s="18"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="16"/>
+      <c r="A536" s="18"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="16"/>
+      <c r="A537" s="18"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="16"/>
+      <c r="A538" s="18"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="16"/>
+      <c r="A539" s="18"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="16"/>
+      <c r="A540" s="18"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="16"/>
+      <c r="A541" s="18"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="16"/>
+      <c r="A542" s="18"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="16"/>
+      <c r="A543" s="18"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="16"/>
+      <c r="A544" s="18"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="16"/>
+      <c r="A545" s="18"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="16"/>
+      <c r="A546" s="18"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="16"/>
+      <c r="A547" s="18"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="16"/>
+      <c r="A548" s="18"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="16"/>
+      <c r="A549" s="18"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="16"/>
+      <c r="A550" s="18"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="16"/>
+      <c r="A551" s="18"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="16"/>
+      <c r="A552" s="18"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="16"/>
+      <c r="A553" s="18"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="16"/>
+      <c r="A554" s="18"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="16"/>
+      <c r="A555" s="18"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="16"/>
+      <c r="A556" s="18"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="16"/>
+      <c r="A557" s="18"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="16"/>
+      <c r="A558" s="18"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="16"/>
+      <c r="A559" s="18"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="16"/>
+      <c r="A560" s="18"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="16"/>
+      <c r="A561" s="18"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="16"/>
+      <c r="A562" s="18"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="16"/>
+      <c r="A563" s="18"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="16"/>
+      <c r="A564" s="18"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="16"/>
+      <c r="A565" s="18"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="16"/>
+      <c r="A566" s="18"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="16"/>
+      <c r="A567" s="18"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="16"/>
+      <c r="A568" s="18"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="16"/>
+      <c r="A569" s="18"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="16"/>
+      <c r="A570" s="18"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="16"/>
+      <c r="A571" s="18"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="16"/>
+      <c r="A572" s="18"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="16"/>
+      <c r="A573" s="18"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="16"/>
+      <c r="A574" s="18"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="16"/>
+      <c r="A575" s="18"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="16"/>
+      <c r="A576" s="18"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="16"/>
+      <c r="A577" s="18"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="16"/>
+      <c r="A578" s="18"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="16"/>
+      <c r="A579" s="18"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="16"/>
+      <c r="A580" s="18"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="16"/>
+      <c r="A581" s="18"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="16"/>
+      <c r="A582" s="18"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="16"/>
+      <c r="A583" s="18"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="16"/>
+      <c r="A584" s="18"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="16"/>
+      <c r="A585" s="18"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="16"/>
+      <c r="A586" s="18"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="16"/>
+      <c r="A587" s="18"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="16"/>
+      <c r="A588" s="18"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="16"/>
+      <c r="A589" s="18"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="16"/>
+      <c r="A590" s="18"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="16"/>
+      <c r="A591" s="18"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="16"/>
+      <c r="A592" s="18"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="16"/>
+      <c r="A593" s="18"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="16"/>
+      <c r="A594" s="18"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="16"/>
+      <c r="A595" s="18"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="16"/>
+      <c r="A596" s="18"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="16"/>
+      <c r="A597" s="18"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="16"/>
+      <c r="A598" s="18"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="16"/>
+      <c r="A599" s="18"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="16"/>
+      <c r="A600" s="18"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="16"/>
+      <c r="A601" s="18"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="16"/>
+      <c r="A602" s="18"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="16"/>
+      <c r="A603" s="18"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="16"/>
+      <c r="A604" s="18"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="16"/>
+      <c r="A605" s="18"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="16"/>
+      <c r="A606" s="18"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="16"/>
+      <c r="A607" s="18"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="16"/>
+      <c r="A608" s="18"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="16"/>
+      <c r="A609" s="18"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="16"/>
+      <c r="A610" s="18"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="16"/>
+      <c r="A611" s="18"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="16"/>
+      <c r="A612" s="18"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="16"/>
+      <c r="A613" s="18"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="16"/>
+      <c r="A614" s="18"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="16"/>
+      <c r="A615" s="18"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="16"/>
+      <c r="A616" s="18"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="16"/>
+      <c r="A617" s="18"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="16"/>
+      <c r="A618" s="18"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="16"/>
+      <c r="A619" s="18"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="16"/>
+      <c r="A620" s="18"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="16"/>
+      <c r="A621" s="18"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="16"/>
+      <c r="A622" s="18"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="16"/>
+      <c r="A623" s="18"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="16"/>
+      <c r="A624" s="18"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="16"/>
+      <c r="A625" s="18"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="16"/>
+      <c r="A626" s="18"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="16"/>
+      <c r="A627" s="18"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="16"/>
+      <c r="A628" s="18"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="16"/>
+      <c r="A629" s="18"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="16"/>
+      <c r="A630" s="18"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="16"/>
+      <c r="A631" s="18"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="16"/>
+      <c r="A632" s="18"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="16"/>
+      <c r="A633" s="18"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="16"/>
+      <c r="A634" s="18"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="16"/>
+      <c r="A635" s="18"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="16"/>
+      <c r="A636" s="18"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="16"/>
+      <c r="A637" s="18"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="16"/>
+      <c r="A638" s="18"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="16"/>
+      <c r="A639" s="18"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="16"/>
+      <c r="A640" s="18"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="16"/>
+      <c r="A641" s="18"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="16"/>
+      <c r="A642" s="18"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="16"/>
+      <c r="A643" s="18"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="16"/>
+      <c r="A644" s="18"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="16"/>
+      <c r="A645" s="18"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="16"/>
+      <c r="A646" s="18"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="16"/>
+      <c r="A647" s="18"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="16"/>
+      <c r="A648" s="18"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="16"/>
+      <c r="A649" s="18"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="16"/>
+      <c r="A650" s="18"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="16"/>
+      <c r="A651" s="18"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="16"/>
+      <c r="A652" s="18"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="16"/>
+      <c r="A653" s="18"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="16"/>
+      <c r="A654" s="18"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="16"/>
+      <c r="A655" s="18"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="16"/>
+      <c r="A656" s="18"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="16"/>
+      <c r="A657" s="18"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="16"/>
+      <c r="A658" s="18"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="16"/>
+      <c r="A659" s="18"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="16"/>
+      <c r="A660" s="18"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="16"/>
+      <c r="A661" s="18"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="16"/>
+      <c r="A662" s="18"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="16"/>
+      <c r="A663" s="18"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="16"/>
+      <c r="A664" s="18"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="16"/>
+      <c r="A665" s="18"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="16"/>
+      <c r="A666" s="18"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="16"/>
+      <c r="A667" s="18"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="16"/>
+      <c r="A668" s="18"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="16"/>
+      <c r="A669" s="18"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="16"/>
+      <c r="A670" s="18"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="16"/>
+      <c r="A671" s="18"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="16"/>
+      <c r="A672" s="18"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="16"/>
+      <c r="A673" s="18"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="16"/>
+      <c r="A674" s="18"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="16"/>
+      <c r="A675" s="18"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="16"/>
+      <c r="A676" s="18"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="16"/>
+      <c r="A677" s="18"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="16"/>
+      <c r="A678" s="18"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="16"/>
+      <c r="A679" s="18"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="16"/>
+      <c r="A680" s="18"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="16"/>
+      <c r="A681" s="18"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="16"/>
+      <c r="A682" s="18"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="16"/>
+      <c r="A683" s="18"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="16"/>
+      <c r="A684" s="18"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="16"/>
+      <c r="A685" s="18"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="16"/>
+      <c r="A686" s="18"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="16"/>
+      <c r="A687" s="18"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="16"/>
+      <c r="A688" s="18"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="16"/>
+      <c r="A689" s="18"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="16"/>
+      <c r="A690" s="18"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="16"/>
+      <c r="A691" s="18"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="16"/>
+      <c r="A692" s="18"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="16"/>
+      <c r="A693" s="18"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="16"/>
+      <c r="A694" s="18"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="16"/>
+      <c r="A695" s="18"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="16"/>
+      <c r="A696" s="18"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="16"/>
+      <c r="A697" s="18"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="16"/>
+      <c r="A698" s="18"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="16"/>
+      <c r="A699" s="18"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="16"/>
+      <c r="A700" s="18"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="16"/>
+      <c r="A701" s="18"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="16"/>
+      <c r="A702" s="18"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="16"/>
+      <c r="A703" s="18"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="16"/>
+      <c r="A704" s="18"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="16"/>
+      <c r="A705" s="18"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="16"/>
+      <c r="A706" s="18"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="16"/>
+      <c r="A707" s="18"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="16"/>
+      <c r="A708" s="18"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="16"/>
+      <c r="A709" s="18"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="16"/>
+      <c r="A710" s="18"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="16"/>
+      <c r="A711" s="18"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="16"/>
+      <c r="A712" s="18"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="16"/>
+      <c r="A713" s="18"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="16"/>
+      <c r="A714" s="18"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="16"/>
+      <c r="A715" s="18"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="16"/>
+      <c r="A716" s="18"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="16"/>
+      <c r="A717" s="18"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="16"/>
+      <c r="A718" s="18"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="16"/>
+      <c r="A719" s="18"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="16"/>
+      <c r="A720" s="18"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="16"/>
+      <c r="A721" s="18"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="16"/>
+      <c r="A722" s="18"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="16"/>
+      <c r="A723" s="18"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="16"/>
+      <c r="A724" s="18"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="16"/>
+      <c r="A725" s="18"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="16"/>
+      <c r="A726" s="18"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="16"/>
+      <c r="A727" s="18"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="16"/>
+      <c r="A728" s="18"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="16"/>
+      <c r="A729" s="18"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="16"/>
+      <c r="A730" s="18"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="16"/>
+      <c r="A731" s="18"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="16"/>
+      <c r="A732" s="18"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="16"/>
+      <c r="A733" s="18"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="16"/>
+      <c r="A734" s="18"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="16"/>
+      <c r="A735" s="18"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="16"/>
+      <c r="A736" s="18"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="16"/>
+      <c r="A737" s="18"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="16"/>
+      <c r="A738" s="18"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="16"/>
+      <c r="A739" s="18"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="16"/>
+      <c r="A740" s="18"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="16"/>
+      <c r="A741" s="18"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="16"/>
+      <c r="A742" s="18"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="16"/>
+      <c r="A743" s="18"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="16"/>
+      <c r="A744" s="18"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="16"/>
+      <c r="A745" s="18"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="16"/>
+      <c r="A746" s="18"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="16"/>
+      <c r="A747" s="18"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="16"/>
+      <c r="A748" s="18"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="16"/>
+      <c r="A749" s="18"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="16"/>
+      <c r="A750" s="18"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="16"/>
+      <c r="A751" s="18"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="16"/>
+      <c r="A752" s="18"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="16"/>
+      <c r="A753" s="18"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="16"/>
+      <c r="A754" s="18"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="16"/>
+      <c r="A755" s="18"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="16"/>
+      <c r="A756" s="18"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="16"/>
+      <c r="A757" s="18"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="16"/>
+      <c r="A758" s="18"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="16"/>
+      <c r="A759" s="18"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="16"/>
+      <c r="A760" s="18"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="16"/>
+      <c r="A761" s="18"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="16"/>
+      <c r="A762" s="18"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="16"/>
+      <c r="A763" s="18"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="16"/>
+      <c r="A764" s="18"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="16"/>
+      <c r="A765" s="18"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="16"/>
+      <c r="A766" s="18"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="16"/>
+      <c r="A767" s="18"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="16"/>
+      <c r="A768" s="18"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="16"/>
+      <c r="A769" s="18"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="16"/>
+      <c r="A770" s="18"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="16"/>
+      <c r="A771" s="18"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="16"/>
+      <c r="A772" s="18"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="16"/>
+      <c r="A773" s="18"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="16"/>
+      <c r="A774" s="18"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="16"/>
+      <c r="A775" s="18"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="16"/>
+      <c r="A776" s="18"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="16"/>
+      <c r="A777" s="18"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="16"/>
+      <c r="A778" s="18"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="16"/>
+      <c r="A779" s="18"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="16"/>
+      <c r="A780" s="18"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="16"/>
+      <c r="A781" s="18"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="16"/>
+      <c r="A782" s="18"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="16"/>
+      <c r="A783" s="18"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="16"/>
+      <c r="A784" s="18"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="16"/>
+      <c r="A785" s="18"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="16"/>
+      <c r="A786" s="18"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="16"/>
+      <c r="A787" s="18"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="16"/>
+      <c r="A788" s="18"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="16"/>
+      <c r="A789" s="18"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="16"/>
+      <c r="A790" s="18"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="16"/>
+      <c r="A791" s="18"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="16"/>
+      <c r="A792" s="18"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="16"/>
+      <c r="A793" s="18"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="16"/>
+      <c r="A794" s="18"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="16"/>
+      <c r="A795" s="18"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="16"/>
+      <c r="A796" s="18"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="16"/>
+      <c r="A797" s="18"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="16"/>
+      <c r="A798" s="18"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="16"/>
+      <c r="A799" s="18"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="16"/>
+      <c r="A800" s="18"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="16"/>
+      <c r="A801" s="18"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="16"/>
+      <c r="A802" s="18"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="16"/>
+      <c r="A803" s="18"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="16"/>
+      <c r="A804" s="18"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="16"/>
+      <c r="A805" s="18"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="16"/>
+      <c r="A806" s="18"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="16"/>
+      <c r="A807" s="18"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="16"/>
+      <c r="A808" s="18"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="16"/>
+      <c r="A809" s="18"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="16"/>
+      <c r="A810" s="18"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="16"/>
+      <c r="A811" s="18"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="16"/>
+      <c r="A812" s="18"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="16"/>
+      <c r="A813" s="18"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="16"/>
+      <c r="A814" s="18"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="16"/>
+      <c r="A815" s="18"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="16"/>
+      <c r="A816" s="18"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="16"/>
+      <c r="A817" s="18"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="16"/>
+      <c r="A818" s="18"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="16"/>
+      <c r="A819" s="18"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="16"/>
+      <c r="A820" s="18"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="16"/>
+      <c r="A821" s="18"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="16"/>
+      <c r="A822" s="18"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="16"/>
+      <c r="A823" s="18"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="16"/>
+      <c r="A824" s="18"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="16"/>
+      <c r="A825" s="18"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="16"/>
+      <c r="A826" s="18"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="16"/>
+      <c r="A827" s="18"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="16"/>
+      <c r="A828" s="18"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="16"/>
+      <c r="A829" s="18"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="16"/>
+      <c r="A830" s="18"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="16"/>
+      <c r="A831" s="18"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="16"/>
+      <c r="A832" s="18"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="16"/>
+      <c r="A833" s="18"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="16"/>
+      <c r="A834" s="18"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="16"/>
+      <c r="A835" s="18"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="16"/>
+      <c r="A836" s="18"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="16"/>
+      <c r="A837" s="18"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="16"/>
+      <c r="A838" s="18"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="16"/>
+      <c r="A839" s="18"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="16"/>
+      <c r="A840" s="18"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="16"/>
+      <c r="A841" s="18"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="16"/>
+      <c r="A842" s="18"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="16"/>
+      <c r="A843" s="18"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="16"/>
+      <c r="A844" s="18"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="16"/>
+      <c r="A845" s="18"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="16"/>
+      <c r="A846" s="18"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="16"/>
+      <c r="A847" s="18"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="16"/>
+      <c r="A848" s="18"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="16"/>
+      <c r="A849" s="18"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="16"/>
+      <c r="A850" s="18"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="16"/>
+      <c r="A851" s="18"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="16"/>
+      <c r="A852" s="18"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="16"/>
+      <c r="A853" s="18"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="16"/>
+      <c r="A854" s="18"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="16"/>
+      <c r="A855" s="18"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="16"/>
+      <c r="A856" s="18"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="16"/>
+      <c r="A857" s="18"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="16"/>
+      <c r="A858" s="18"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="16"/>
+      <c r="A859" s="18"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="16"/>
+      <c r="A860" s="18"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="16"/>
+      <c r="A861" s="18"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="16"/>
+      <c r="A862" s="18"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="16"/>
+      <c r="A863" s="18"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="16"/>
+      <c r="A864" s="18"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="16"/>
+      <c r="A865" s="18"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="16"/>
+      <c r="A866" s="18"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="16"/>
+      <c r="A867" s="18"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="16"/>
+      <c r="A868" s="18"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="16"/>
+      <c r="A869" s="18"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="16"/>
+      <c r="A870" s="18"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="16"/>
+      <c r="A871" s="18"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="16"/>
+      <c r="A872" s="18"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="16"/>
+      <c r="A873" s="18"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="16"/>
+      <c r="A874" s="18"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="16"/>
+      <c r="A875" s="18"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="16"/>
+      <c r="A876" s="18"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="16"/>
+      <c r="A877" s="18"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="16"/>
+      <c r="A878" s="18"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="16"/>
+      <c r="A879" s="18"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="16"/>
+      <c r="A880" s="18"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="16"/>
+      <c r="A881" s="18"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="16"/>
+      <c r="A882" s="18"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="16"/>
+      <c r="A883" s="18"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="16"/>
+      <c r="A884" s="18"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="16"/>
+      <c r="A885" s="18"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="16"/>
+      <c r="A886" s="18"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="16"/>
+      <c r="A887" s="18"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="16"/>
+      <c r="A888" s="18"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="16"/>
+      <c r="A889" s="18"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="16"/>
+      <c r="A890" s="18"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="16"/>
+      <c r="A891" s="18"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="16"/>
+      <c r="A892" s="18"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="16"/>
+      <c r="A893" s="18"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="16"/>
+      <c r="A894" s="18"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="16"/>
+      <c r="A895" s="18"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="16"/>
+      <c r="A896" s="18"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="16"/>
+      <c r="A897" s="18"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="16"/>
+      <c r="A898" s="18"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="16"/>
+      <c r="A899" s="18"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="16"/>
+      <c r="A900" s="18"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="16"/>
+      <c r="A901" s="18"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="16"/>
+      <c r="A902" s="18"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="16"/>
+      <c r="A903" s="18"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="16"/>
+      <c r="A904" s="18"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="16"/>
+      <c r="A905" s="18"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="16"/>
+      <c r="A906" s="18"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="16"/>
+      <c r="A907" s="18"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="16"/>
+      <c r="A908" s="18"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="16"/>
+      <c r="A909" s="18"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="16"/>
+      <c r="A910" s="18"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="16"/>
+      <c r="A911" s="18"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="16"/>
+      <c r="A912" s="18"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="16"/>
+      <c r="A913" s="18"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="16"/>
+      <c r="A914" s="18"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="16"/>
+      <c r="A915" s="18"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="16"/>
+      <c r="A916" s="18"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="16"/>
+      <c r="A917" s="18"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="16"/>
+      <c r="A918" s="18"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="16"/>
+      <c r="A919" s="18"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="16"/>
+      <c r="A920" s="18"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="16"/>
+      <c r="A921" s="18"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="16"/>
+      <c r="A922" s="18"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="16"/>
+      <c r="A923" s="18"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="16"/>
+      <c r="A924" s="18"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="16"/>
+      <c r="A925" s="18"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="16"/>
+      <c r="A926" s="18"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="16"/>
+      <c r="A927" s="18"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="16"/>
+      <c r="A928" s="18"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="16"/>
+      <c r="A929" s="18"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="16"/>
+      <c r="A930" s="18"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="16"/>
+      <c r="A931" s="18"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="16"/>
+      <c r="A932" s="18"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="16"/>
+      <c r="A933" s="18"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="16"/>
+      <c r="A934" s="18"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="16"/>
+      <c r="A935" s="18"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="16"/>
+      <c r="A936" s="18"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="16"/>
+      <c r="A937" s="18"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="16"/>
+      <c r="A938" s="18"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="16"/>
+      <c r="A939" s="18"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="16"/>
+      <c r="A940" s="18"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="16"/>
+      <c r="A941" s="18"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="16"/>
+      <c r="A942" s="18"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="16"/>
+      <c r="A943" s="18"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="16"/>
+      <c r="A944" s="18"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="16"/>
+      <c r="A945" s="18"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="16"/>
+      <c r="A946" s="18"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="16"/>
+      <c r="A947" s="18"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="16"/>
+      <c r="A948" s="18"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="16"/>
+      <c r="A949" s="18"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="16"/>
+      <c r="A950" s="18"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="16"/>
+      <c r="A951" s="18"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="16"/>
+      <c r="A952" s="18"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="16"/>
+      <c r="A953" s="18"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="16"/>
+      <c r="A954" s="18"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="16"/>
+      <c r="A955" s="18"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="16"/>
+      <c r="A956" s="18"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="16"/>
+      <c r="A957" s="18"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="16"/>
+      <c r="A958" s="18"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="16"/>
+      <c r="A959" s="18"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="16"/>
+      <c r="A960" s="18"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="16"/>
+      <c r="A961" s="18"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="16"/>
+      <c r="A962" s="18"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="16"/>
+      <c r="A963" s="18"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="16"/>
+      <c r="A964" s="18"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="16"/>
+      <c r="A965" s="18"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="16"/>
+      <c r="A966" s="18"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="16"/>
+      <c r="A967" s="18"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="16"/>
+      <c r="A968" s="18"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="16"/>
+      <c r="A969" s="18"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="16"/>
+      <c r="A970" s="18"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="16"/>
+      <c r="A971" s="18"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="16"/>
+      <c r="A972" s="18"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="16"/>
+      <c r="A973" s="18"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="16"/>
+      <c r="A974" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/methods.xlsx
+++ b/methods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
   <si>
     <t xml:space="preserve">METHOD_NAMES</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">ToTitle</t>
   </si>
   <si>
+    <t xml:space="preserve">capitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucfirst</t>
+  </si>
+  <si>
     <t xml:space="preserve">char-at</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t xml:space="preserve">casecmp</t>
   </si>
   <si>
+    <t xml:space="preserve">strnatcasecmp</t>
+  </si>
+  <si>
     <t xml:space="preserve">concatenate</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t xml:space="preserve">Count</t>
   </si>
   <si>
+    <t xml:space="preserve">substr_count</t>
+  </si>
+  <si>
     <t xml:space="preserve">ends-with</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
     <t xml:space="preserve">hasSuffix</t>
   </si>
   <si>
+    <t xml:space="preserve">str_ends_with</t>
+  </si>
+  <si>
     <t xml:space="preserve">equals</t>
   </si>
   <si>
@@ -235,6 +250,9 @@
     <t xml:space="preserve">Repeat</t>
   </si>
   <si>
+    <t xml:space="preserve">str_repeat</t>
+  </si>
+  <si>
     <t xml:space="preserve">replace-all</t>
   </si>
   <si>
@@ -253,6 +271,9 @@
     <t xml:space="preserve">replaceSubrange</t>
   </si>
   <si>
+    <t xml:space="preserve">str_replace</t>
+  </si>
+  <si>
     <t xml:space="preserve">replace-first</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
     <t xml:space="preserve">Split</t>
   </si>
   <si>
+    <t xml:space="preserve">str_split</t>
+  </si>
+  <si>
     <t xml:space="preserve">starts-with</t>
   </si>
   <si>
@@ -286,6 +310,9 @@
     <t xml:space="preserve">hasPrefix</t>
   </si>
   <si>
+    <t xml:space="preserve">str_starts_with</t>
+  </si>
+  <si>
     <t xml:space="preserve">strip</t>
   </si>
   <si>
@@ -295,6 +322,9 @@
     <t xml:space="preserve">Trim</t>
   </si>
   <si>
+    <t xml:space="preserve">trimmingCharacters</t>
+  </si>
+  <si>
     <t xml:space="preserve">substring</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
     <t xml:space="preserve">lowercased</t>
   </si>
   <si>
+    <t xml:space="preserve">strtolower</t>
+  </si>
+  <si>
     <t xml:space="preserve">to-uppercase</t>
   </si>
   <si>
@@ -361,6 +394,9 @@
     <t xml:space="preserve">uppercased</t>
   </si>
   <si>
+    <t xml:space="preserve">strtoupper</t>
+  </si>
+  <si>
     <t xml:space="preserve">trim-left</t>
   </si>
   <si>
@@ -373,22 +409,28 @@
     <t xml:space="preserve">TrimLeft</t>
   </si>
   <si>
+    <t xml:space="preserve">TrimStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ltrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim-right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rstrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trimEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimRight</t>
+  </si>
+  <si>
     <t xml:space="preserve">TrimEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">trim-right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rstrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trimEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrimRight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrimStart</t>
+    <t xml:space="preserve">rtrim</t>
   </si>
   <si>
     <t xml:space="preserve">remove</t>
@@ -400,9 +442,6 @@
     <t xml:space="preserve">as-bytes</t>
   </si>
   <si>
-    <t xml:space="preserve">getBytes</t>
-  </si>
-  <si>
     <t xml:space="preserve">pop-back</t>
   </si>
   <si>
@@ -464,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">shrink_to_fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse</t>
   </si>
 </sst>
 </file>
@@ -473,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -516,6 +558,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -523,7 +570,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +599,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,7 +642,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,6 +719,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,11 +743,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,7 +835,7 @@
   <dimension ref="A1:K974"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,105 +897,113 @@
         <v>12</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="12"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
@@ -936,64 +1013,66 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1008,7 +1087,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1018,12 +1097,12 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1033,33 +1112,35 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1068,13 +1149,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
@@ -1084,29 +1165,29 @@
       <c r="G15" s="7"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1116,518 +1197,546 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="K23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="K27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4"/>
       <c r="E28" s="14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="14" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="14" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="K37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J38" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="K39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="17" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="22"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="12"/>
@@ -1637,63 +1746,61 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="9"/>
+      <c r="I44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="7"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1701,53 +1808,53 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
@@ -1756,13 +1863,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1770,50 +1877,53 @@
       <c r="E49" s="9"/>
       <c r="F49" s="7"/>
       <c r="G49" s="8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J50" s="9"/>
+      <c r="I50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="7"/>
       <c r="K50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1850,7 +1960,7 @@
       <c r="K54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -1863,7 +1973,7 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1876,7 +1986,7 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1889,7 +1999,7 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1902,7 +2012,7 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>

--- a/methods.xlsx
+++ b/methods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
   <si>
     <t xml:space="preserve">METHOD_NAMES</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">str_ends_with</t>
   </si>
   <si>
+    <t xml:space="preserve">ends_with</t>
+  </si>
+  <si>
     <t xml:space="preserve">equals</t>
   </si>
   <si>
@@ -178,33 +181,15 @@
     <t xml:space="preserve">is-alphabetic</t>
   </si>
   <si>
+    <t xml:space="preserve">isAlphabetic</t>
+  </si>
+  <si>
     <t xml:space="preserve">isalpha</t>
   </si>
   <si>
     <t xml:space="preserve">is-empty</t>
   </si>
   <si>
-    <t xml:space="preserve">is-hexadecimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is-int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isdigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is-lowercase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is-uppercase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isupper</t>
-  </si>
-  <si>
     <t xml:space="preserve">is-whitespace</t>
   </si>
   <si>
@@ -280,6 +265,9 @@
     <t xml:space="preserve">replaceFirst</t>
   </si>
   <si>
+    <t xml:space="preserve">replacen</t>
+  </si>
+  <si>
     <t xml:space="preserve">split</t>
   </si>
   <si>
@@ -313,6 +301,9 @@
     <t xml:space="preserve">str_starts_with</t>
   </si>
   <si>
+    <t xml:space="preserve">starts_with</t>
+  </si>
+  <si>
     <t xml:space="preserve">strip</t>
   </si>
   <si>
@@ -331,27 +322,24 @@
     <t xml:space="preserve">substr</t>
   </si>
   <si>
-    <t xml:space="preserve">slice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Substring</t>
   </si>
   <si>
-    <t xml:space="preserve">swap-case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swapcase</t>
-  </si>
-  <si>
     <t xml:space="preserve">to-float</t>
   </si>
   <si>
+    <t xml:space="preserve">stof</t>
+  </si>
+  <si>
     <t xml:space="preserve">to_f</t>
   </si>
   <si>
     <t xml:space="preserve">to-int</t>
   </si>
   <si>
+    <t xml:space="preserve">stoi</t>
+  </si>
+  <si>
     <t xml:space="preserve">to_i</t>
   </si>
   <si>
@@ -376,6 +364,9 @@
     <t xml:space="preserve">strtolower</t>
   </si>
   <si>
+    <t xml:space="preserve">to_lowercase</t>
+  </si>
+  <si>
     <t xml:space="preserve">to-uppercase</t>
   </si>
   <si>
@@ -397,6 +388,9 @@
     <t xml:space="preserve">strtoupper</t>
   </si>
   <si>
+    <t xml:space="preserve">to_uppercase</t>
+  </si>
+  <si>
     <t xml:space="preserve">trim-left</t>
   </si>
   <si>
@@ -415,6 +409,9 @@
     <t xml:space="preserve">ltrim</t>
   </si>
   <si>
+    <t xml:space="preserve">trim_left</t>
+  </si>
+  <si>
     <t xml:space="preserve">trim-right</t>
   </si>
   <si>
@@ -433,15 +430,21 @@
     <t xml:space="preserve">rtrim</t>
   </si>
   <si>
+    <t xml:space="preserve">trim_right</t>
+  </si>
+  <si>
     <t xml:space="preserve">remove</t>
   </si>
   <si>
-    <t xml:space="preserve">uncapitalize</t>
-  </si>
-  <si>
     <t xml:space="preserve">as-bytes</t>
   </si>
   <si>
+    <t xml:space="preserve">bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as_bytes</t>
+  </si>
+  <si>
     <t xml:space="preserve">pop-back</t>
   </si>
   <si>
@@ -454,16 +457,22 @@
     <t xml:space="preserve">popLast</t>
   </si>
   <si>
+    <t xml:space="preserve">pop</t>
+  </si>
+  <si>
     <t xml:space="preserve">as-chars</t>
   </si>
   <si>
     <t xml:space="preserve">getChars</t>
   </si>
   <si>
+    <t xml:space="preserve">chars</t>
+  </si>
+  <si>
     <t xml:space="preserve">ToCharArray</t>
   </si>
   <si>
-    <t xml:space="preserve">as-canonical</t>
+    <t xml:space="preserve">As-canonical</t>
   </si>
   <si>
     <t xml:space="preserve">intern</t>
@@ -481,15 +490,15 @@
     <t xml:space="preserve">isascii</t>
   </si>
   <si>
+    <t xml:space="preserve">ascii_only?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_ascii</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy</t>
   </si>
   <si>
-    <t xml:space="preserve">contains-any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContainsAny</t>
-  </si>
-  <si>
     <t xml:space="preserve">reserve-capacity</t>
   </si>
   <si>
@@ -499,13 +508,13 @@
     <t xml:space="preserve">reserveCapacity</t>
   </si>
   <si>
-    <t xml:space="preserve">shrink-to-fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shrink_to_fit</t>
-  </si>
-  <si>
     <t xml:space="preserve">reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reversed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strrev</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -558,11 +567,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -570,7 +574,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,18 +597,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -642,7 +634,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -679,10 +671,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,19 +687,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,39 +715,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,10 +804,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K974"/>
+  <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,10 +872,10 @@
       <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -912,17 +884,17 @@
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -931,7 +903,7 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
@@ -944,12 +916,12 @@
       <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -962,17 +934,17 @@
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -981,40 +953,40 @@
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="16"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1025,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="7"/>
@@ -1034,10 +1006,10 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -1050,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1065,3979 +1037,3899 @@
       <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="9"/>
+      <c r="J23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="7"/>
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="E26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F27" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="14" t="s">
-        <v>79</v>
+      <c r="E28" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="14" t="s">
-        <v>97</v>
+      <c r="E32" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="H33" s="8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="E34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="9"/>
+      <c r="E35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>109</v>
+      <c r="A36" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="E37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="A38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>129</v>
+      <c r="A39" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" s="9"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>135</v>
+      <c r="A40" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="9"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="7"/>
+      <c r="A44" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="9"/>
+        <v>163</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="9"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="9"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18"/>
+      <c r="A87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18"/>
+      <c r="A100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18"/>
+      <c r="A101" s="19"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18"/>
+      <c r="A102" s="19"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18"/>
+      <c r="A103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="18"/>
+      <c r="A104" s="19"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18"/>
+      <c r="A105" s="19"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18"/>
+      <c r="A106" s="19"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="18"/>
+      <c r="A107" s="19"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="18"/>
+      <c r="A108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="18"/>
+      <c r="A109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="18"/>
+      <c r="A110" s="19"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="18"/>
+      <c r="A111" s="19"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="18"/>
+      <c r="A112" s="19"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="18"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="18"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="18"/>
+      <c r="A115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="18"/>
+      <c r="A116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="18"/>
+      <c r="A117" s="19"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="18"/>
+      <c r="A118" s="19"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="18"/>
+      <c r="A119" s="19"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="18"/>
+      <c r="A120" s="19"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="18"/>
+      <c r="A121" s="19"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="18"/>
+      <c r="A122" s="19"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="18"/>
+      <c r="A123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18"/>
+      <c r="A124" s="19"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18"/>
+      <c r="A125" s="19"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="18"/>
+      <c r="A126" s="19"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="18"/>
+      <c r="A127" s="19"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="18"/>
+      <c r="A128" s="19"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="18"/>
+      <c r="A129" s="19"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="18"/>
+      <c r="A130" s="19"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="18"/>
+      <c r="A131" s="19"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="18"/>
+      <c r="A132" s="19"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="18"/>
+      <c r="A133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18"/>
+      <c r="A134" s="19"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="18"/>
+      <c r="A135" s="19"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="18"/>
+      <c r="A136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="18"/>
+      <c r="A137" s="19"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="18"/>
+      <c r="A138" s="19"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="18"/>
+      <c r="A139" s="19"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="18"/>
+      <c r="A140" s="19"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="18"/>
+      <c r="A141" s="19"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="18"/>
+      <c r="A142" s="19"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="18"/>
+      <c r="A143" s="19"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="18"/>
+      <c r="A144" s="19"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="18"/>
+      <c r="A145" s="19"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="18"/>
+      <c r="A146" s="19"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="18"/>
+      <c r="A147" s="19"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="18"/>
+      <c r="A148" s="19"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="18"/>
+      <c r="A149" s="19"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="18"/>
+      <c r="A150" s="19"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="18"/>
+      <c r="A151" s="19"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="18"/>
+      <c r="A152" s="19"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="18"/>
+      <c r="A153" s="19"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="18"/>
+      <c r="A154" s="19"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18"/>
+      <c r="A155" s="19"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="18"/>
+      <c r="A156" s="19"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="18"/>
+      <c r="A157" s="19"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="18"/>
+      <c r="A158" s="19"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="18"/>
+      <c r="A159" s="19"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="18"/>
+      <c r="A160" s="19"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="18"/>
+      <c r="A161" s="19"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="18"/>
+      <c r="A162" s="19"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="18"/>
+      <c r="A163" s="19"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="18"/>
+      <c r="A164" s="19"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="18"/>
+      <c r="A165" s="19"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="18"/>
+      <c r="A166" s="19"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="18"/>
+      <c r="A167" s="19"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="18"/>
+      <c r="A168" s="19"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="18"/>
+      <c r="A169" s="19"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="18"/>
+      <c r="A170" s="19"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="18"/>
+      <c r="A171" s="19"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="18"/>
+      <c r="A172" s="19"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="18"/>
+      <c r="A173" s="19"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="18"/>
+      <c r="A174" s="19"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="18"/>
+      <c r="A175" s="19"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="18"/>
+      <c r="A176" s="19"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="18"/>
+      <c r="A177" s="19"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="18"/>
+      <c r="A178" s="19"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="18"/>
+      <c r="A179" s="19"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="18"/>
+      <c r="A180" s="19"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="18"/>
+      <c r="A181" s="19"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="18"/>
+      <c r="A182" s="19"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="18"/>
+      <c r="A183" s="19"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="18"/>
+      <c r="A184" s="19"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="18"/>
+      <c r="A185" s="19"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="18"/>
+      <c r="A186" s="19"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="18"/>
+      <c r="A187" s="19"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="18"/>
+      <c r="A188" s="19"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="18"/>
+      <c r="A189" s="19"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="18"/>
+      <c r="A190" s="19"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="18"/>
+      <c r="A191" s="19"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="18"/>
+      <c r="A192" s="19"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="18"/>
+      <c r="A193" s="19"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="18"/>
+      <c r="A194" s="19"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="18"/>
+      <c r="A195" s="19"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="18"/>
+      <c r="A196" s="19"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="18"/>
+      <c r="A197" s="19"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="18"/>
+      <c r="A198" s="19"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="18"/>
+      <c r="A199" s="19"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="18"/>
+      <c r="A200" s="19"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="18"/>
+      <c r="A201" s="19"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="18"/>
+      <c r="A202" s="19"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="18"/>
+      <c r="A203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="18"/>
+      <c r="A204" s="19"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="18"/>
+      <c r="A205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="18"/>
+      <c r="A206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="18"/>
+      <c r="A207" s="19"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="18"/>
+      <c r="A208" s="19"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="18"/>
+      <c r="A209" s="19"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="18"/>
+      <c r="A210" s="19"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="18"/>
+      <c r="A211" s="19"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="18"/>
+      <c r="A212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="18"/>
+      <c r="A213" s="19"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="18"/>
+      <c r="A214" s="19"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="18"/>
+      <c r="A215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="18"/>
+      <c r="A216" s="19"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="18"/>
+      <c r="A217" s="19"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="18"/>
+      <c r="A218" s="19"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="18"/>
+      <c r="A219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="18"/>
+      <c r="A220" s="19"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="18"/>
+      <c r="A221" s="19"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="18"/>
+      <c r="A222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="18"/>
+      <c r="A223" s="19"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="18"/>
+      <c r="A224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="18"/>
+      <c r="A225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="18"/>
+      <c r="A226" s="19"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="18"/>
+      <c r="A227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="18"/>
+      <c r="A228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="18"/>
+      <c r="A229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="18"/>
+      <c r="A230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="18"/>
+      <c r="A231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="18"/>
+      <c r="A232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="18"/>
+      <c r="A233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="18"/>
+      <c r="A234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="18"/>
+      <c r="A235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="18"/>
+      <c r="A236" s="19"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="18"/>
+      <c r="A237" s="19"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="18"/>
+      <c r="A238" s="19"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="18"/>
+      <c r="A239" s="19"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="18"/>
+      <c r="A240" s="19"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="18"/>
+      <c r="A241" s="19"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="18"/>
+      <c r="A242" s="19"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="18"/>
+      <c r="A243" s="19"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="18"/>
+      <c r="A244" s="19"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="18"/>
+      <c r="A245" s="19"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="18"/>
+      <c r="A246" s="19"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="18"/>
+      <c r="A247" s="19"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="18"/>
+      <c r="A248" s="19"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="18"/>
+      <c r="A249" s="19"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="18"/>
+      <c r="A250" s="19"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="18"/>
+      <c r="A251" s="19"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="18"/>
+      <c r="A252" s="19"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="18"/>
+      <c r="A253" s="19"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="18"/>
+      <c r="A254" s="19"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="18"/>
+      <c r="A255" s="19"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="18"/>
+      <c r="A256" s="19"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="18"/>
+      <c r="A257" s="19"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="18"/>
+      <c r="A258" s="19"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="18"/>
+      <c r="A259" s="19"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="18"/>
+      <c r="A260" s="19"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="18"/>
+      <c r="A261" s="19"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="18"/>
+      <c r="A262" s="19"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="18"/>
+      <c r="A263" s="19"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="18"/>
+      <c r="A264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="18"/>
+      <c r="A265" s="19"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="18"/>
+      <c r="A266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="18"/>
+      <c r="A267" s="19"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="18"/>
+      <c r="A268" s="19"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="18"/>
+      <c r="A269" s="19"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="18"/>
+      <c r="A270" s="19"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="18"/>
+      <c r="A271" s="19"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="18"/>
+      <c r="A272" s="19"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="18"/>
+      <c r="A273" s="19"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="18"/>
+      <c r="A274" s="19"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="18"/>
+      <c r="A275" s="19"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="18"/>
+      <c r="A276" s="19"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="18"/>
+      <c r="A277" s="19"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="18"/>
+      <c r="A278" s="19"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="18"/>
+      <c r="A279" s="19"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="18"/>
+      <c r="A280" s="19"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="18"/>
+      <c r="A281" s="19"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="18"/>
+      <c r="A282" s="19"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="18"/>
+      <c r="A283" s="19"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="18"/>
+      <c r="A284" s="19"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="18"/>
+      <c r="A285" s="19"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="18"/>
+      <c r="A286" s="19"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="18"/>
+      <c r="A287" s="19"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="18"/>
+      <c r="A288" s="19"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="18"/>
+      <c r="A289" s="19"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="18"/>
+      <c r="A290" s="19"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="18"/>
+      <c r="A291" s="19"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="18"/>
+      <c r="A292" s="19"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="18"/>
+      <c r="A293" s="19"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="18"/>
+      <c r="A294" s="19"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="18"/>
+      <c r="A295" s="19"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="18"/>
+      <c r="A296" s="19"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="18"/>
+      <c r="A297" s="19"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="18"/>
+      <c r="A298" s="19"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="18"/>
+      <c r="A299" s="19"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="18"/>
+      <c r="A300" s="19"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="18"/>
+      <c r="A301" s="19"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="18"/>
+      <c r="A302" s="19"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="18"/>
+      <c r="A303" s="19"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="18"/>
+      <c r="A304" s="19"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="18"/>
+      <c r="A305" s="19"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="18"/>
+      <c r="A306" s="19"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="18"/>
+      <c r="A307" s="19"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="18"/>
+      <c r="A308" s="19"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="18"/>
+      <c r="A309" s="19"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="18"/>
+      <c r="A310" s="19"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="18"/>
+      <c r="A311" s="19"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="18"/>
+      <c r="A312" s="19"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="18"/>
+      <c r="A313" s="19"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="18"/>
+      <c r="A314" s="19"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="18"/>
+      <c r="A315" s="19"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="18"/>
+      <c r="A316" s="19"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="18"/>
+      <c r="A317" s="19"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="18"/>
+      <c r="A318" s="19"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="18"/>
+      <c r="A319" s="19"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="18"/>
+      <c r="A320" s="19"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="18"/>
+      <c r="A321" s="19"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="18"/>
+      <c r="A322" s="19"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="18"/>
+      <c r="A323" s="19"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="18"/>
+      <c r="A324" s="19"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="18"/>
+      <c r="A325" s="19"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="18"/>
+      <c r="A326" s="19"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="18"/>
+      <c r="A327" s="19"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="18"/>
+      <c r="A328" s="19"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="18"/>
+      <c r="A329" s="19"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="18"/>
+      <c r="A330" s="19"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="18"/>
+      <c r="A331" s="19"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="18"/>
+      <c r="A332" s="19"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="18"/>
+      <c r="A333" s="19"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="18"/>
+      <c r="A334" s="19"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="18"/>
+      <c r="A335" s="19"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="18"/>
+      <c r="A336" s="19"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="18"/>
+      <c r="A337" s="19"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="18"/>
+      <c r="A338" s="19"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="18"/>
+      <c r="A339" s="19"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="18"/>
+      <c r="A340" s="19"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="18"/>
+      <c r="A341" s="19"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="18"/>
+      <c r="A342" s="19"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="18"/>
+      <c r="A343" s="19"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="18"/>
+      <c r="A344" s="19"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="18"/>
+      <c r="A345" s="19"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="18"/>
+      <c r="A346" s="19"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="18"/>
+      <c r="A347" s="19"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="18"/>
+      <c r="A348" s="19"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="18"/>
+      <c r="A349" s="19"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="18"/>
+      <c r="A350" s="19"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="18"/>
+      <c r="A351" s="19"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="18"/>
+      <c r="A352" s="19"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="18"/>
+      <c r="A353" s="19"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="18"/>
+      <c r="A354" s="19"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="18"/>
+      <c r="A355" s="19"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="18"/>
+      <c r="A356" s="19"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="18"/>
+      <c r="A357" s="19"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="18"/>
+      <c r="A358" s="19"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="18"/>
+      <c r="A359" s="19"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="18"/>
+      <c r="A360" s="19"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="18"/>
+      <c r="A361" s="19"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="18"/>
+      <c r="A362" s="19"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="18"/>
+      <c r="A363" s="19"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="18"/>
+      <c r="A364" s="19"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="18"/>
+      <c r="A365" s="19"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="18"/>
+      <c r="A366" s="19"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="18"/>
+      <c r="A367" s="19"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="18"/>
+      <c r="A368" s="19"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="18"/>
+      <c r="A369" s="19"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="18"/>
+      <c r="A370" s="19"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="18"/>
+      <c r="A371" s="19"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="18"/>
+      <c r="A372" s="19"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="18"/>
+      <c r="A373" s="19"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="18"/>
+      <c r="A374" s="19"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="18"/>
+      <c r="A375" s="19"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="18"/>
+      <c r="A376" s="19"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="18"/>
+      <c r="A377" s="19"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="18"/>
+      <c r="A378" s="19"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="18"/>
+      <c r="A379" s="19"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="18"/>
+      <c r="A380" s="19"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="18"/>
+      <c r="A381" s="19"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="18"/>
+      <c r="A382" s="19"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="18"/>
+      <c r="A383" s="19"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="18"/>
+      <c r="A384" s="19"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="18"/>
+      <c r="A385" s="19"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="18"/>
+      <c r="A386" s="19"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="18"/>
+      <c r="A387" s="19"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="18"/>
+      <c r="A388" s="19"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="18"/>
+      <c r="A389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="18"/>
+      <c r="A390" s="19"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="18"/>
+      <c r="A391" s="19"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="18"/>
+      <c r="A392" s="19"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="18"/>
+      <c r="A393" s="19"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="18"/>
+      <c r="A394" s="19"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="18"/>
+      <c r="A395" s="19"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="18"/>
+      <c r="A396" s="19"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="18"/>
+      <c r="A397" s="19"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="18"/>
+      <c r="A398" s="19"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="18"/>
+      <c r="A399" s="19"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="18"/>
+      <c r="A400" s="19"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="18"/>
+      <c r="A401" s="19"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="18"/>
+      <c r="A402" s="19"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="18"/>
+      <c r="A403" s="19"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="18"/>
+      <c r="A404" s="19"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="18"/>
+      <c r="A405" s="19"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="18"/>
+      <c r="A406" s="19"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="18"/>
+      <c r="A407" s="19"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="18"/>
+      <c r="A408" s="19"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="18"/>
+      <c r="A409" s="19"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="18"/>
+      <c r="A410" s="19"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="18"/>
+      <c r="A411" s="19"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="18"/>
+      <c r="A412" s="19"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="18"/>
+      <c r="A413" s="19"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="18"/>
+      <c r="A414" s="19"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="18"/>
+      <c r="A415" s="19"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="18"/>
+      <c r="A416" s="19"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="18"/>
+      <c r="A417" s="19"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="18"/>
+      <c r="A418" s="19"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="18"/>
+      <c r="A419" s="19"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="18"/>
+      <c r="A420" s="19"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="18"/>
+      <c r="A421" s="19"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="18"/>
+      <c r="A422" s="19"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="18"/>
+      <c r="A423" s="19"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="18"/>
+      <c r="A424" s="19"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="18"/>
+      <c r="A425" s="19"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="18"/>
+      <c r="A426" s="19"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="18"/>
+      <c r="A427" s="19"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="18"/>
+      <c r="A428" s="19"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="18"/>
+      <c r="A429" s="19"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="18"/>
+      <c r="A430" s="19"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="18"/>
+      <c r="A431" s="19"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="18"/>
+      <c r="A432" s="19"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="18"/>
+      <c r="A433" s="19"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="18"/>
+      <c r="A434" s="19"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="18"/>
+      <c r="A435" s="19"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="18"/>
+      <c r="A436" s="19"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="18"/>
+      <c r="A437" s="19"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="18"/>
+      <c r="A438" s="19"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="18"/>
+      <c r="A439" s="19"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="18"/>
+      <c r="A440" s="19"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="18"/>
+      <c r="A441" s="19"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="18"/>
+      <c r="A442" s="19"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="18"/>
+      <c r="A443" s="19"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="18"/>
+      <c r="A444" s="19"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="18"/>
+      <c r="A445" s="19"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="18"/>
+      <c r="A446" s="19"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="18"/>
+      <c r="A447" s="19"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="18"/>
+      <c r="A448" s="19"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="18"/>
+      <c r="A449" s="19"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="18"/>
+      <c r="A450" s="19"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="18"/>
+      <c r="A451" s="19"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="18"/>
+      <c r="A452" s="19"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="18"/>
+      <c r="A453" s="19"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="18"/>
+      <c r="A454" s="19"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="18"/>
+      <c r="A455" s="19"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="18"/>
+      <c r="A456" s="19"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="18"/>
+      <c r="A457" s="19"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="18"/>
+      <c r="A458" s="19"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="18"/>
+      <c r="A459" s="19"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="18"/>
+      <c r="A460" s="19"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="18"/>
+      <c r="A461" s="19"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="18"/>
+      <c r="A462" s="19"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="18"/>
+      <c r="A463" s="19"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="18"/>
+      <c r="A464" s="19"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="18"/>
+      <c r="A465" s="19"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="18"/>
+      <c r="A466" s="19"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="18"/>
+      <c r="A467" s="19"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="18"/>
+      <c r="A468" s="19"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="18"/>
+      <c r="A469" s="19"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="18"/>
+      <c r="A470" s="19"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="18"/>
+      <c r="A471" s="19"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="18"/>
+      <c r="A472" s="19"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="18"/>
+      <c r="A473" s="19"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="18"/>
+      <c r="A474" s="19"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="18"/>
+      <c r="A475" s="19"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="18"/>
+      <c r="A476" s="19"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="18"/>
+      <c r="A477" s="19"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="18"/>
+      <c r="A478" s="19"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="18"/>
+      <c r="A479" s="19"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="18"/>
+      <c r="A480" s="19"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="18"/>
+      <c r="A481" s="19"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="18"/>
+      <c r="A482" s="19"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="18"/>
+      <c r="A483" s="19"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="18"/>
+      <c r="A484" s="19"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="18"/>
+      <c r="A485" s="19"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="18"/>
+      <c r="A486" s="19"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="18"/>
+      <c r="A487" s="19"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="18"/>
+      <c r="A488" s="19"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="18"/>
+      <c r="A489" s="19"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="18"/>
+      <c r="A490" s="19"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="18"/>
+      <c r="A491" s="19"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="18"/>
+      <c r="A492" s="19"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="18"/>
+      <c r="A493" s="19"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="18"/>
+      <c r="A494" s="19"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="18"/>
+      <c r="A495" s="19"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="18"/>
+      <c r="A496" s="19"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="18"/>
+      <c r="A497" s="19"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="18"/>
+      <c r="A498" s="19"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="18"/>
+      <c r="A499" s="19"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="18"/>
+      <c r="A500" s="19"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="18"/>
+      <c r="A501" s="19"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="18"/>
+      <c r="A502" s="19"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="18"/>
+      <c r="A503" s="19"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="18"/>
+      <c r="A504" s="19"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="18"/>
+      <c r="A505" s="19"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="18"/>
+      <c r="A506" s="19"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="18"/>
+      <c r="A507" s="19"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="18"/>
+      <c r="A508" s="19"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="18"/>
+      <c r="A509" s="19"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="18"/>
+      <c r="A510" s="19"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="18"/>
+      <c r="A511" s="19"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="18"/>
+      <c r="A512" s="19"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="18"/>
+      <c r="A513" s="19"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="18"/>
+      <c r="A514" s="19"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="18"/>
+      <c r="A515" s="19"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="18"/>
+      <c r="A516" s="19"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="18"/>
+      <c r="A517" s="19"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="18"/>
+      <c r="A518" s="19"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="18"/>
+      <c r="A519" s="19"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="18"/>
+      <c r="A520" s="19"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="18"/>
+      <c r="A521" s="19"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="18"/>
+      <c r="A522" s="19"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="18"/>
+      <c r="A523" s="19"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="18"/>
+      <c r="A524" s="19"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="18"/>
+      <c r="A525" s="19"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="18"/>
+      <c r="A526" s="19"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="18"/>
+      <c r="A527" s="19"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="18"/>
+      <c r="A528" s="19"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="18"/>
+      <c r="A529" s="19"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="18"/>
+      <c r="A530" s="19"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="18"/>
+      <c r="A531" s="19"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="18"/>
+      <c r="A532" s="19"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="18"/>
+      <c r="A533" s="19"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="18"/>
+      <c r="A534" s="19"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="18"/>
+      <c r="A535" s="19"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="18"/>
+      <c r="A536" s="19"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="18"/>
+      <c r="A537" s="19"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="18"/>
+      <c r="A538" s="19"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="18"/>
+      <c r="A539" s="19"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="18"/>
+      <c r="A540" s="19"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="18"/>
+      <c r="A541" s="19"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="18"/>
+      <c r="A542" s="19"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="18"/>
+      <c r="A543" s="19"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="18"/>
+      <c r="A544" s="19"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="18"/>
+      <c r="A545" s="19"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="18"/>
+      <c r="A546" s="19"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="18"/>
+      <c r="A547" s="19"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="18"/>
+      <c r="A548" s="19"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="18"/>
+      <c r="A549" s="19"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="18"/>
+      <c r="A550" s="19"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="18"/>
+      <c r="A551" s="19"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="18"/>
+      <c r="A552" s="19"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="18"/>
+      <c r="A553" s="19"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="18"/>
+      <c r="A554" s="19"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="18"/>
+      <c r="A555" s="19"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="18"/>
+      <c r="A556" s="19"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="18"/>
+      <c r="A557" s="19"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="18"/>
+      <c r="A558" s="19"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="18"/>
+      <c r="A559" s="19"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="18"/>
+      <c r="A560" s="19"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="18"/>
+      <c r="A561" s="19"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="18"/>
+      <c r="A562" s="19"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="18"/>
+      <c r="A563" s="19"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="18"/>
+      <c r="A564" s="19"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="18"/>
+      <c r="A565" s="19"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="18"/>
+      <c r="A566" s="19"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="18"/>
+      <c r="A567" s="19"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="18"/>
+      <c r="A568" s="19"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="18"/>
+      <c r="A569" s="19"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="18"/>
+      <c r="A570" s="19"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="18"/>
+      <c r="A571" s="19"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="18"/>
+      <c r="A572" s="19"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="18"/>
+      <c r="A573" s="19"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="18"/>
+      <c r="A574" s="19"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="18"/>
+      <c r="A575" s="19"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="18"/>
+      <c r="A576" s="19"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="18"/>
+      <c r="A577" s="19"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="18"/>
+      <c r="A578" s="19"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="18"/>
+      <c r="A579" s="19"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="18"/>
+      <c r="A580" s="19"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="18"/>
+      <c r="A581" s="19"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="18"/>
+      <c r="A582" s="19"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="18"/>
+      <c r="A583" s="19"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="18"/>
+      <c r="A584" s="19"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="18"/>
+      <c r="A585" s="19"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="18"/>
+      <c r="A586" s="19"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="18"/>
+      <c r="A587" s="19"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="18"/>
+      <c r="A588" s="19"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="18"/>
+      <c r="A589" s="19"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="18"/>
+      <c r="A590" s="19"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="18"/>
+      <c r="A591" s="19"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="18"/>
+      <c r="A592" s="19"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="18"/>
+      <c r="A593" s="19"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="18"/>
+      <c r="A594" s="19"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="18"/>
+      <c r="A595" s="19"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="18"/>
+      <c r="A596" s="19"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="18"/>
+      <c r="A597" s="19"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="18"/>
+      <c r="A598" s="19"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="18"/>
+      <c r="A599" s="19"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="18"/>
+      <c r="A600" s="19"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="18"/>
+      <c r="A601" s="19"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="18"/>
+      <c r="A602" s="19"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="18"/>
+      <c r="A603" s="19"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="18"/>
+      <c r="A604" s="19"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="18"/>
+      <c r="A605" s="19"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="18"/>
+      <c r="A606" s="19"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="18"/>
+      <c r="A607" s="19"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="18"/>
+      <c r="A608" s="19"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="18"/>
+      <c r="A609" s="19"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="18"/>
+      <c r="A610" s="19"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="18"/>
+      <c r="A611" s="19"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="18"/>
+      <c r="A612" s="19"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="18"/>
+      <c r="A613" s="19"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="18"/>
+      <c r="A614" s="19"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="18"/>
+      <c r="A615" s="19"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="18"/>
+      <c r="A616" s="19"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="18"/>
+      <c r="A617" s="19"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="18"/>
+      <c r="A618" s="19"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="18"/>
+      <c r="A619" s="19"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="18"/>
+      <c r="A620" s="19"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="18"/>
+      <c r="A621" s="19"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="18"/>
+      <c r="A622" s="19"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="18"/>
+      <c r="A623" s="19"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="18"/>
+      <c r="A624" s="19"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="18"/>
+      <c r="A625" s="19"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="18"/>
+      <c r="A626" s="19"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="18"/>
+      <c r="A627" s="19"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="18"/>
+      <c r="A628" s="19"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="18"/>
+      <c r="A629" s="19"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="18"/>
+      <c r="A630" s="19"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="18"/>
+      <c r="A631" s="19"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="18"/>
+      <c r="A632" s="19"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="18"/>
+      <c r="A633" s="19"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="18"/>
+      <c r="A634" s="19"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="18"/>
+      <c r="A635" s="19"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="18"/>
+      <c r="A636" s="19"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="18"/>
+      <c r="A637" s="19"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="18"/>
+      <c r="A638" s="19"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="18"/>
+      <c r="A639" s="19"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="18"/>
+      <c r="A640" s="19"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="18"/>
+      <c r="A641" s="19"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="18"/>
+      <c r="A642" s="19"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="18"/>
+      <c r="A643" s="19"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="18"/>
+      <c r="A644" s="19"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="18"/>
+      <c r="A645" s="19"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="18"/>
+      <c r="A646" s="19"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="18"/>
+      <c r="A647" s="19"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="18"/>
+      <c r="A648" s="19"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="18"/>
+      <c r="A649" s="19"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="18"/>
+      <c r="A650" s="19"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="18"/>
+      <c r="A651" s="19"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="18"/>
+      <c r="A652" s="19"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="18"/>
+      <c r="A653" s="19"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="18"/>
+      <c r="A654" s="19"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="18"/>
+      <c r="A655" s="19"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="18"/>
+      <c r="A656" s="19"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="18"/>
+      <c r="A657" s="19"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="18"/>
+      <c r="A658" s="19"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="18"/>
+      <c r="A659" s="19"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="18"/>
+      <c r="A660" s="19"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="18"/>
+      <c r="A661" s="19"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="18"/>
+      <c r="A662" s="19"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="18"/>
+      <c r="A663" s="19"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="18"/>
+      <c r="A664" s="19"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="18"/>
+      <c r="A665" s="19"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="18"/>
+      <c r="A666" s="19"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="18"/>
+      <c r="A667" s="19"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="18"/>
+      <c r="A668" s="19"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="18"/>
+      <c r="A669" s="19"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="18"/>
+      <c r="A670" s="19"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="18"/>
+      <c r="A671" s="19"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="18"/>
+      <c r="A672" s="19"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="18"/>
+      <c r="A673" s="19"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="18"/>
+      <c r="A674" s="19"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="18"/>
+      <c r="A675" s="19"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="18"/>
+      <c r="A676" s="19"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="18"/>
+      <c r="A677" s="19"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="18"/>
+      <c r="A678" s="19"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="18"/>
+      <c r="A679" s="19"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="18"/>
+      <c r="A680" s="19"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="18"/>
+      <c r="A681" s="19"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="18"/>
+      <c r="A682" s="19"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="18"/>
+      <c r="A683" s="19"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="18"/>
+      <c r="A684" s="19"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="18"/>
+      <c r="A685" s="19"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="18"/>
+      <c r="A686" s="19"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="18"/>
+      <c r="A687" s="19"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="18"/>
+      <c r="A688" s="19"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="18"/>
+      <c r="A689" s="19"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="18"/>
+      <c r="A690" s="19"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="18"/>
+      <c r="A691" s="19"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="18"/>
+      <c r="A692" s="19"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="18"/>
+      <c r="A693" s="19"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="18"/>
+      <c r="A694" s="19"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="18"/>
+      <c r="A695" s="19"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="18"/>
+      <c r="A696" s="19"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="18"/>
+      <c r="A697" s="19"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="18"/>
+      <c r="A698" s="19"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="18"/>
+      <c r="A699" s="19"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="18"/>
+      <c r="A700" s="19"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="18"/>
+      <c r="A701" s="19"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="18"/>
+      <c r="A702" s="19"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="18"/>
+      <c r="A703" s="19"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="18"/>
+      <c r="A704" s="19"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="18"/>
+      <c r="A705" s="19"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="18"/>
+      <c r="A706" s="19"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="18"/>
+      <c r="A707" s="19"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="18"/>
+      <c r="A708" s="19"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="18"/>
+      <c r="A709" s="19"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="18"/>
+      <c r="A710" s="19"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="18"/>
+      <c r="A711" s="19"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="18"/>
+      <c r="A712" s="19"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="18"/>
+      <c r="A713" s="19"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="18"/>
+      <c r="A714" s="19"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="18"/>
+      <c r="A715" s="19"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="18"/>
+      <c r="A716" s="19"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="18"/>
+      <c r="A717" s="19"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="18"/>
+      <c r="A718" s="19"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="18"/>
+      <c r="A719" s="19"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="18"/>
+      <c r="A720" s="19"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="18"/>
+      <c r="A721" s="19"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="18"/>
+      <c r="A722" s="19"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="18"/>
+      <c r="A723" s="19"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="18"/>
+      <c r="A724" s="19"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="18"/>
+      <c r="A725" s="19"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="18"/>
+      <c r="A726" s="19"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="18"/>
+      <c r="A727" s="19"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="18"/>
+      <c r="A728" s="19"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="18"/>
+      <c r="A729" s="19"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="18"/>
+      <c r="A730" s="19"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="18"/>
+      <c r="A731" s="19"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="18"/>
+      <c r="A732" s="19"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="18"/>
+      <c r="A733" s="19"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="18"/>
+      <c r="A734" s="19"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="18"/>
+      <c r="A735" s="19"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="18"/>
+      <c r="A736" s="19"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="18"/>
+      <c r="A737" s="19"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="18"/>
+      <c r="A738" s="19"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="18"/>
+      <c r="A739" s="19"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="18"/>
+      <c r="A740" s="19"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="18"/>
+      <c r="A741" s="19"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="18"/>
+      <c r="A742" s="19"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="18"/>
+      <c r="A743" s="19"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="18"/>
+      <c r="A744" s="19"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="18"/>
+      <c r="A745" s="19"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="18"/>
+      <c r="A746" s="19"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="18"/>
+      <c r="A747" s="19"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="18"/>
+      <c r="A748" s="19"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="18"/>
+      <c r="A749" s="19"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="18"/>
+      <c r="A750" s="19"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="18"/>
+      <c r="A751" s="19"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="18"/>
+      <c r="A752" s="19"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="18"/>
+      <c r="A753" s="19"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="18"/>
+      <c r="A754" s="19"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="18"/>
+      <c r="A755" s="19"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="18"/>
+      <c r="A756" s="19"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="18"/>
+      <c r="A757" s="19"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="18"/>
+      <c r="A758" s="19"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="18"/>
+      <c r="A759" s="19"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="18"/>
+      <c r="A760" s="19"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="18"/>
+      <c r="A761" s="19"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="18"/>
+      <c r="A762" s="19"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="18"/>
+      <c r="A763" s="19"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="18"/>
+      <c r="A764" s="19"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="18"/>
+      <c r="A765" s="19"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="18"/>
+      <c r="A766" s="19"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="18"/>
+      <c r="A767" s="19"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="18"/>
+      <c r="A768" s="19"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="18"/>
+      <c r="A769" s="19"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="18"/>
+      <c r="A770" s="19"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="18"/>
+      <c r="A771" s="19"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="18"/>
+      <c r="A772" s="19"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="18"/>
+      <c r="A773" s="19"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="18"/>
+      <c r="A774" s="19"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="18"/>
+      <c r="A775" s="19"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="18"/>
+      <c r="A776" s="19"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="18"/>
+      <c r="A777" s="19"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="18"/>
+      <c r="A778" s="19"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="18"/>
+      <c r="A779" s="19"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="18"/>
+      <c r="A780" s="19"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="18"/>
+      <c r="A781" s="19"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="18"/>
+      <c r="A782" s="19"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="18"/>
+      <c r="A783" s="19"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="18"/>
+      <c r="A784" s="19"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="18"/>
+      <c r="A785" s="19"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="18"/>
+      <c r="A786" s="19"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="18"/>
+      <c r="A787" s="19"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="18"/>
+      <c r="A788" s="19"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="18"/>
+      <c r="A789" s="19"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="18"/>
+      <c r="A790" s="19"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="18"/>
+      <c r="A791" s="19"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="18"/>
+      <c r="A792" s="19"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="18"/>
+      <c r="A793" s="19"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="18"/>
+      <c r="A794" s="19"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="18"/>
+      <c r="A795" s="19"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="18"/>
+      <c r="A796" s="19"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="18"/>
+      <c r="A797" s="19"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="18"/>
+      <c r="A798" s="19"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="18"/>
+      <c r="A799" s="19"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="18"/>
+      <c r="A800" s="19"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="18"/>
+      <c r="A801" s="19"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="18"/>
+      <c r="A802" s="19"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="18"/>
+      <c r="A803" s="19"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="18"/>
+      <c r="A804" s="19"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="18"/>
+      <c r="A805" s="19"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="18"/>
+      <c r="A806" s="19"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="18"/>
+      <c r="A807" s="19"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="18"/>
+      <c r="A808" s="19"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="18"/>
+      <c r="A809" s="19"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="18"/>
+      <c r="A810" s="19"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="18"/>
+      <c r="A811" s="19"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="18"/>
+      <c r="A812" s="19"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="18"/>
+      <c r="A813" s="19"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="18"/>
+      <c r="A814" s="19"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="18"/>
+      <c r="A815" s="19"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="18"/>
+      <c r="A816" s="19"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="18"/>
+      <c r="A817" s="19"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="18"/>
+      <c r="A818" s="19"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="18"/>
+      <c r="A819" s="19"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="18"/>
+      <c r="A820" s="19"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="18"/>
+      <c r="A821" s="19"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="18"/>
+      <c r="A822" s="19"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="18"/>
+      <c r="A823" s="19"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="18"/>
+      <c r="A824" s="19"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="18"/>
+      <c r="A825" s="19"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="18"/>
+      <c r="A826" s="19"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="18"/>
+      <c r="A827" s="19"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="18"/>
+      <c r="A828" s="19"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="18"/>
+      <c r="A829" s="19"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="18"/>
+      <c r="A830" s="19"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="18"/>
+      <c r="A831" s="19"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="18"/>
+      <c r="A832" s="19"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="18"/>
+      <c r="A833" s="19"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="18"/>
+      <c r="A834" s="19"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="18"/>
+      <c r="A835" s="19"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="18"/>
+      <c r="A836" s="19"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="18"/>
+      <c r="A837" s="19"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="18"/>
+      <c r="A838" s="19"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="18"/>
+      <c r="A839" s="19"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="18"/>
+      <c r="A840" s="19"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="18"/>
+      <c r="A841" s="19"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="18"/>
+      <c r="A842" s="19"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="18"/>
+      <c r="A843" s="19"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="18"/>
+      <c r="A844" s="19"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="18"/>
+      <c r="A845" s="19"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="18"/>
+      <c r="A846" s="19"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="18"/>
+      <c r="A847" s="19"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="18"/>
+      <c r="A848" s="19"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="18"/>
+      <c r="A849" s="19"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="18"/>
+      <c r="A850" s="19"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="18"/>
+      <c r="A851" s="19"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="18"/>
+      <c r="A852" s="19"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="18"/>
+      <c r="A853" s="19"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="18"/>
+      <c r="A854" s="19"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="18"/>
+      <c r="A855" s="19"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="18"/>
+      <c r="A856" s="19"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="18"/>
+      <c r="A857" s="19"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="18"/>
+      <c r="A858" s="19"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="18"/>
+      <c r="A859" s="19"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="18"/>
+      <c r="A860" s="19"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="18"/>
+      <c r="A861" s="19"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="18"/>
+      <c r="A862" s="19"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="18"/>
+      <c r="A863" s="19"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="18"/>
+      <c r="A864" s="19"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="18"/>
+      <c r="A865" s="19"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="18"/>
+      <c r="A866" s="19"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="18"/>
+      <c r="A867" s="19"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="18"/>
+      <c r="A868" s="19"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="18"/>
+      <c r="A869" s="19"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="18"/>
+      <c r="A870" s="19"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="18"/>
+      <c r="A871" s="19"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="18"/>
+      <c r="A872" s="19"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="18"/>
+      <c r="A873" s="19"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="18"/>
+      <c r="A874" s="19"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="18"/>
+      <c r="A875" s="19"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="18"/>
+      <c r="A876" s="19"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="18"/>
+      <c r="A877" s="19"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="18"/>
+      <c r="A878" s="19"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="18"/>
+      <c r="A879" s="19"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="18"/>
+      <c r="A880" s="19"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="18"/>
+      <c r="A881" s="19"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="18"/>
+      <c r="A882" s="19"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="18"/>
+      <c r="A883" s="19"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="18"/>
+      <c r="A884" s="19"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="18"/>
+      <c r="A885" s="19"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="18"/>
+      <c r="A886" s="19"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="18"/>
+      <c r="A887" s="19"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="18"/>
+      <c r="A888" s="19"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="18"/>
+      <c r="A889" s="19"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="18"/>
+      <c r="A890" s="19"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="18"/>
+      <c r="A891" s="19"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="18"/>
+      <c r="A892" s="19"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="18"/>
+      <c r="A893" s="19"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="18"/>
+      <c r="A894" s="19"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="18"/>
+      <c r="A895" s="19"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="18"/>
+      <c r="A896" s="19"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="18"/>
+      <c r="A897" s="19"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="18"/>
+      <c r="A898" s="19"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="18"/>
+      <c r="A899" s="19"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="18"/>
+      <c r="A900" s="19"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="18"/>
+      <c r="A901" s="19"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="18"/>
+      <c r="A902" s="19"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="18"/>
+      <c r="A903" s="19"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="18"/>
+      <c r="A904" s="19"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="18"/>
+      <c r="A905" s="19"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="18"/>
+      <c r="A906" s="19"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="18"/>
+      <c r="A907" s="19"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="18"/>
+      <c r="A908" s="19"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="18"/>
+      <c r="A909" s="19"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="18"/>
+      <c r="A910" s="19"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="18"/>
+      <c r="A911" s="19"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="18"/>
+      <c r="A912" s="19"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="18"/>
+      <c r="A913" s="19"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="18"/>
+      <c r="A914" s="19"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="18"/>
+      <c r="A915" s="19"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="18"/>
+      <c r="A916" s="19"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="18"/>
+      <c r="A917" s="19"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="18"/>
+      <c r="A918" s="19"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="18"/>
+      <c r="A919" s="19"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="18"/>
+      <c r="A920" s="19"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="18"/>
+      <c r="A921" s="19"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="18"/>
+      <c r="A922" s="19"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="18"/>
+      <c r="A923" s="19"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="18"/>
+      <c r="A924" s="19"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="18"/>
+      <c r="A925" s="19"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="18"/>
+      <c r="A926" s="19"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="18"/>
+      <c r="A927" s="19"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="18"/>
+      <c r="A928" s="19"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="18"/>
+      <c r="A929" s="19"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="18"/>
+      <c r="A930" s="19"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="18"/>
+      <c r="A931" s="19"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="18"/>
+      <c r="A932" s="19"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="18"/>
+      <c r="A933" s="19"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="18"/>
+      <c r="A934" s="19"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="18"/>
+      <c r="A935" s="19"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="18"/>
+      <c r="A936" s="19"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="18"/>
+      <c r="A937" s="19"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="18"/>
+      <c r="A938" s="19"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="18"/>
+      <c r="A939" s="19"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="18"/>
+      <c r="A940" s="19"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="18"/>
+      <c r="A941" s="19"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="18"/>
+      <c r="A942" s="19"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="18"/>
+      <c r="A943" s="19"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="18"/>
+      <c r="A944" s="19"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="18"/>
+      <c r="A945" s="19"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="18"/>
+      <c r="A946" s="19"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="18"/>
+      <c r="A947" s="19"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="18"/>
+      <c r="A948" s="19"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="18"/>
+      <c r="A949" s="19"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="18"/>
+      <c r="A950" s="19"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="18"/>
+      <c r="A951" s="19"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="18"/>
+      <c r="A952" s="19"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="18"/>
+      <c r="A953" s="19"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="18"/>
+      <c r="A954" s="19"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="18"/>
+      <c r="A955" s="19"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="18"/>
+      <c r="A956" s="19"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="18"/>
+      <c r="A957" s="19"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="18"/>
+      <c r="A958" s="19"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="18"/>
+      <c r="A959" s="19"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="18"/>
+      <c r="A960" s="19"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="18"/>
+      <c r="A961" s="19"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="18"/>
+      <c r="A962" s="19"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="18"/>
+      <c r="A963" s="19"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="18"/>
+      <c r="A964" s="19"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="18"/>
+      <c r="A965" s="19"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="18"/>
-    </row>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="18"/>
-    </row>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="18"/>
-    </row>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="18"/>
-    </row>
-    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="18"/>
-    </row>
-    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="18"/>
-    </row>
-    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="18"/>
-    </row>
-    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="18"/>
-    </row>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="18"/>
+      <c r="A966" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
